--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="70">
   <si>
     <t>제목 : Project D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,27 +26,275 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>키워드 : SF / 신비한 숲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 플레이어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 스테이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장르 : 3D 로그라이크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>해상도 : 1920 * 1080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고층 빌딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 플레이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 계산표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100% - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 - 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지상 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중 - 1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 - 1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1당 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1당 0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1당 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 보스 - 1.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수 - 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 - 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑 센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀이공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초고층 빌딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산식을 통하여 산출된 점수는 몬스터 처치 시 획득하는 보상에 영향을 미친다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투력 계산표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수는 전투력 * 등급이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(공격력 + 생명력 + 방어력) * (이동타입+공격타입) * 이동속도 * 공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투력 계산식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 회사원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 청소부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 안내 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1%당 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 순찰원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 경호원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 경호 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 경호대장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정화 드론</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,12 +319,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,8 +347,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -398,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -418,17 +687,12 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -439,32 +703,1063 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:O61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19" s="2">
+        <f>3</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="I19" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="K19">
+        <f>SUM(F20:H20)*(D20+E20)*I20*J20</f>
+        <v>131.625</v>
+      </c>
+      <c r="L19">
+        <f>K19*C20</f>
+        <v>131.625</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1.4</v>
+      </c>
+      <c r="E20">
+        <v>1.3</v>
+      </c>
+      <c r="F20">
+        <f>F19</f>
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <f>G19*0.2</f>
+        <v>10</v>
+      </c>
+      <c r="H20" s="2">
+        <f>H19*2</f>
+        <v>6</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H23" s="2"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>5</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <f>IF(C29="일반",1,IF(C29="중간 보스",1.25,IF(C29="특수",2,5)))</f>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f>IF(D29="지상",1,1.4)</f>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f>IF(E29="근접",1,1.3)</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>23</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N29">
+        <f>SUM(I29:K29)*(G29+H29)*L29*M29</f>
+        <v>43.5</v>
+      </c>
+      <c r="O29">
+        <f>N29*F29</f>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:F33" si="0">IF(C30="일반",1,IF(C30="중간 보스",1.25,IF(C30="특수",2,5)))</f>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30:G33" si="1">IF(D30="지상",1,1.4)</f>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H33" si="2">IF(E30="근접",1,1.3)</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30:N33" si="3">SUM(I30:K30)*(G30+H30)*L30*M30</f>
+        <v>33.6</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30:O33" si="4">N30*F30</f>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="I31" s="2">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>19</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>35.879999999999995</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>35.879999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="I32" s="2">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>16</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>34.155000000000001</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>34.155000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <v>31</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>41.16</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>41.16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34">
+        <f>IF(C34="일반",1,IF(C34="중간 보스",1.25,IF(C34="특수",2,5)))</f>
+        <v>1.25</v>
+      </c>
+      <c r="G34">
+        <f>IF(D34="지상",1,1.4)</f>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f>IF(E34="근접",1,1.3)</f>
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>11</v>
+      </c>
+      <c r="J34">
+        <v>93</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="N34">
+        <f>SUM(I34:K34)*(G34+H34)*L34*M34</f>
+        <v>209.88000000000002</v>
+      </c>
+      <c r="O34">
+        <f>N34*F34</f>
+        <v>262.35000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F37" si="5">IF(C35="일반",1,IF(C35="중간 보스",1.25,IF(C35="특수",2,5)))</f>
+        <v>1.25</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G37" si="6">IF(D35="지상",1,1.4)</f>
+        <v>1.4</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:H37" si="7">IF(E35="근접",1,1.3)</f>
+        <v>1.3</v>
+      </c>
+      <c r="I35" s="2">
+        <v>9</v>
+      </c>
+      <c r="J35">
+        <v>76</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:N37" si="8">SUM(I35:K35)*(G35+H35)*L35*M35</f>
+        <v>213.84</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35:O37" si="9">N35*F35</f>
+        <v>267.3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="I36" s="2">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <v>20</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1">
+        <v>2</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="8"/>
+        <v>120.96000000000002</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="9"/>
+        <v>241.92000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>29</v>
+      </c>
+      <c r="J37">
+        <v>1000</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="8"/>
+        <v>1349.37</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="9"/>
+        <v>6746.8499999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s">
+        <v>52</v>
+      </c>
+      <c r="L49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" t="s">
+        <v>52</v>
+      </c>
+      <c r="L61" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Detail" sheetId="2" r:id="rId2"/>
-    <sheet name="Other" sheetId="3" r:id="rId3"/>
+    <sheet name="Story" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="136">
   <si>
     <t>제목 : Project D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고층 빌딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쇼핑 센터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스테이지3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,15 +190,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>계산식을 통하여 산출된 점수는 몬스터 처치 시 획득하는 보상에 영향을 미친다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투력 계산표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수는 전투력 * 등급이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(공격력 + 생명력 + 방어력) * (이동타입+공격타입) * 이동속도 * 공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투력 계산식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 회사원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 청소부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 안내 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1%당 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 순찰원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 경호원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 경호 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 경호대장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정화 드론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급형 순찰 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>놀이공원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초고층 빌딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계산식을 통하여 산출된 점수는 몬스터 처치 시 획득하는 보상에 영향을 미친다.</t>
+    <t>고급형 안전 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급형 순찰 드론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급형 판매 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고층 건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 건물 지하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 건물 로비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 건물 저층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 건물 중층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 건물 상층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 건물 최상층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -222,79 +350,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투력 계산표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점수는 전투력 * 등급이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(공격력 + 생명력 + 방어력) * (이동타입+공격타입) * 이동속도 * 공격속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투력 계산식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오염된 회사원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오염된 청소부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오염된 연구원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오염된 안내 로봇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1%당 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오염된 순찰원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오염된 경호원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오염된 경호 로봇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오염된 경호대장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정화 드론</t>
+    <t>오염된 청소 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티켓 판매 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 매표소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 공원 입구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 공연장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 푸드코트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 공사장 입구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 공사장 사무실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 연구소 입구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 연구소 로비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 복도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 숨겨진 실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 관람차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 제어 센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초고층 건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 건물 로비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 건물 저층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 건물 중층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 건물 상층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 건물 최상층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 건물 지하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 도시 제어실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 공사장 저층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 공사장 중층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 공사장 상층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 타워 크레인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20XX년, D구역의 도시 파괴 원인을 조사하기 위한 조사단이 결성된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사단의 인원은 총 6명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 오퍼레이터. 지휘 담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 능력치 업그레이드. 엔지니어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 생명력 회복. 의사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 주인공. 조사 담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 던전 이동. 운송 담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 상품 판매. 보급 담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인체 보호 슈트를 개발한 연구원들 중 한 명이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰어난 의사로 인체 보호 슈트의 기능 개발에 참여한 연구원들 중 한 명이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사단의 지휘를 담당하는 팀장급 인물이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사단의 이동과 물자 운송을 담당하는 인물이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접 현장에 가서 도시 파괴 원인을 조사하는 인물이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보급 물자를 담당하는 인물이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,6 +566,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,6 +631,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,27 +976,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O61"/>
+  <dimension ref="B2:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -747,18 +1021,18 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -785,10 +1059,10 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1"/>
@@ -798,16 +1072,16 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -818,7 +1092,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1"/>
@@ -828,10 +1102,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
@@ -841,10 +1115,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
@@ -854,10 +1128,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
@@ -867,10 +1141,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="1"/>
@@ -880,10 +1154,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1"/>
@@ -893,10 +1167,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3"/>
       <c r="H14" s="2"/>
@@ -907,10 +1181,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3"/>
       <c r="H15" s="2"/>
@@ -922,7 +1196,7 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
@@ -956,24 +1230,24 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -1031,17 +1305,17 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
@@ -1058,223 +1332,197 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="H26" s="2"/>
+      <c r="B26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
+      <c r="B27" s="5"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" t="s">
-        <v>13</v>
-      </c>
-      <c r="N28" t="s">
-        <v>52</v>
-      </c>
-      <c r="O28" t="s">
-        <v>51</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29">
-        <f>IF(C29="일반",1,IF(C29="중간 보스",1.25,IF(C29="특수",2,5)))</f>
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <f>IF(D29="지상",1,1.4)</f>
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <f>IF(E29="근접",1,1.3)</f>
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>23</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="N29">
-        <f>SUM(I29:K29)*(G29+H29)*L29*M29</f>
-        <v>43.5</v>
-      </c>
-      <c r="O29">
-        <f>N29*F29</f>
-        <v>43.5</v>
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F33" si="0">IF(C30="일반",1,IF(C30="중간 보스",1.25,IF(C30="특수",2,5)))</f>
+        <f>IF(C30="일반",1,IF(C30="중간 보스",1.25,IF(C30="특수",2,5)))</f>
         <v>1</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G33" si="1">IF(D30="지상",1,1.4)</f>
+        <f>IF(D30="지상",1,1.4)</f>
         <v>1</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H33" si="2">IF(E30="근접",1,1.3)</f>
+        <f>IF(E30="근접",1,1.3)</f>
         <v>1</v>
       </c>
       <c r="I30" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="M30" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N30">
-        <f t="shared" ref="N30:N33" si="3">SUM(I30:K30)*(G30+H30)*L30*M30</f>
-        <v>33.6</v>
-      </c>
-      <c r="O30">
-        <f t="shared" ref="O30:O33" si="4">N30*F30</f>
-        <v>33.6</v>
+        <v>0.6</v>
+      </c>
+      <c r="N30" s="6">
+        <f>SUM(I30:K30)*(G30+H30)*L30*M30</f>
+        <v>43.5</v>
+      </c>
+      <c r="O30" s="7">
+        <f>N30*F30</f>
+        <v>43.5</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F31:F34" si="0">IF(C31="일반",1,IF(C31="중간 보스",1.25,IF(C31="특수",2,5)))</f>
         <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G31:G34" si="1">IF(D31="지상",1,1.4)</f>
         <v>1</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
-        <v>1.3</v>
+        <f t="shared" ref="H31:H34" si="2">IF(E31="근접",1,1.3)</f>
+        <v>1</v>
       </c>
       <c r="I31" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
         <v>1</v>
       </c>
       <c r="M31" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="3"/>
-        <v>35.879999999999995</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="4"/>
-        <v>35.879999999999995</v>
+        <v>0.8</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" ref="N31:N34" si="3">SUM(I31:K31)*(G31+H31)*L31*M31</f>
+        <v>33.6</v>
+      </c>
+      <c r="O31" s="7">
+        <f t="shared" ref="O31:O34" si="4">N31*F31</f>
+        <v>33.6</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -1289,439 +1537,566 @@
         <v>1.3</v>
       </c>
       <c r="I32" s="2">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>19</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" si="3"/>
+        <v>35.879999999999995</v>
+      </c>
+      <c r="O32" s="7">
+        <f t="shared" si="4"/>
+        <v>35.879999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="I33" s="2">
         <v>6</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>16</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <v>0</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L33" s="1">
         <v>0.9</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M33" s="1">
         <v>0.75</v>
       </c>
-      <c r="N32">
+      <c r="N33" s="6">
         <f t="shared" si="3"/>
         <v>34.155000000000001</v>
       </c>
-      <c r="O32">
+      <c r="O33" s="7">
         <f t="shared" si="4"/>
         <v>34.155000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I34" s="2">
         <v>9</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>31</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <v>2</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L34" s="1">
         <v>0.7</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M34" s="1">
         <v>0.7</v>
       </c>
-      <c r="N33">
+      <c r="N34" s="6">
         <f t="shared" si="3"/>
         <v>41.16</v>
       </c>
-      <c r="O33">
+      <c r="O34" s="7">
         <f t="shared" si="4"/>
         <v>41.16</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34">
-        <f>IF(C34="일반",1,IF(C34="중간 보스",1.25,IF(C34="특수",2,5)))</f>
-        <v>1.25</v>
-      </c>
-      <c r="G34">
-        <f>IF(D34="지상",1,1.4)</f>
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <f>IF(E34="근접",1,1.3)</f>
-        <v>1</v>
-      </c>
-      <c r="I34" s="2">
-        <v>11</v>
-      </c>
-      <c r="J34">
-        <v>93</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="N34">
-        <f>SUM(I34:K34)*(G34+H34)*L34*M34</f>
-        <v>209.88000000000002</v>
-      </c>
-      <c r="O34">
-        <f>N34*F34</f>
-        <v>262.35000000000002</v>
-      </c>
-    </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F37" si="5">IF(C35="일반",1,IF(C35="중간 보스",1.25,IF(C35="특수",2,5)))</f>
+        <f>IF(C35="일반",1,IF(C35="중간 보스",1.25,IF(C35="특수",2,5)))</f>
         <v>1.25</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G37" si="6">IF(D35="지상",1,1.4)</f>
-        <v>1.4</v>
+        <f>IF(D35="지상",1,1.4)</f>
+        <v>1</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H37" si="7">IF(E35="근접",1,1.3)</f>
-        <v>1.3</v>
+        <f>IF(E35="근접",1,1.3)</f>
+        <v>1</v>
       </c>
       <c r="I35" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J35">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="M35" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="N35">
-        <f t="shared" ref="N35:N37" si="8">SUM(I35:K35)*(G35+H35)*L35*M35</f>
-        <v>213.84</v>
-      </c>
-      <c r="O35">
-        <f t="shared" ref="O35:O37" si="9">N35*F35</f>
-        <v>267.3</v>
+        <v>0.4</v>
+      </c>
+      <c r="N35" s="6">
+        <f>SUM(I35:K35)*(G35+H35)*L35*M35</f>
+        <v>84</v>
+      </c>
+      <c r="O35" s="7">
+        <f>N35*F35</f>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
         <v>37</v>
       </c>
-      <c r="E36" t="s">
-        <v>38</v>
-      </c>
       <c r="F36">
+        <f t="shared" ref="F36:F38" si="5">IF(C36="일반",1,IF(C36="중간 보스",1.25,IF(C36="특수",2,5)))</f>
+        <v>1.25</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G38" si="6">IF(D36="지상",1,1.4)</f>
+        <v>1.4</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H38" si="7">IF(E36="근접",1,1.3)</f>
+        <v>1.3</v>
+      </c>
+      <c r="I36" s="2">
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <v>76</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N36" s="6">
+        <f t="shared" ref="N36:N38" si="8">SUM(I36:K36)*(G36+H36)*L36*M36</f>
+        <v>85.536000000000001</v>
+      </c>
+      <c r="O36" s="7">
+        <f t="shared" ref="O36:O38" si="9">N36*F36</f>
+        <v>106.92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <f t="shared" si="7"/>
         <v>1.3</v>
       </c>
-      <c r="I36" s="2">
-        <v>7</v>
-      </c>
-      <c r="J36">
+      <c r="I37" s="2">
+        <v>4</v>
+      </c>
+      <c r="J37">
         <v>20</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" s="1">
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1">
         <v>2</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M37" s="1">
         <v>0.8</v>
       </c>
-      <c r="N36">
+      <c r="N37" s="6">
         <f t="shared" si="8"/>
-        <v>120.96000000000002</v>
-      </c>
-      <c r="O36">
+        <v>108</v>
+      </c>
+      <c r="O37" s="7">
         <f t="shared" si="9"/>
-        <v>241.92000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I38" s="2">
         <v>29</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <v>1000</v>
       </c>
-      <c r="K37">
+      <c r="K38">
         <v>5</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L38" s="1">
         <v>1.45</v>
       </c>
-      <c r="M37" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="N37">
+      <c r="M38" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="N38" s="6">
         <f t="shared" si="8"/>
-        <v>1349.37</v>
-      </c>
-      <c r="O37">
+        <v>749.65</v>
+      </c>
+      <c r="O38" s="7">
         <f t="shared" si="9"/>
-        <v>6746.8499999999995</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H38" s="2"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>40</v>
+        <v>3748.25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>8</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>7</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" t="s">
         <v>9</v>
       </c>
-      <c r="G43" t="s">
+      <c r="J45" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I43" t="s">
+      <c r="L45" t="s">
         <v>12</v>
       </c>
-      <c r="J43" t="s">
+      <c r="M45" t="s">
         <v>13</v>
       </c>
-      <c r="K43" t="s">
-        <v>52</v>
-      </c>
-      <c r="L43" t="s">
-        <v>51</v>
+      <c r="N45" t="s">
+        <v>48</v>
+      </c>
+      <c r="O45" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
-        <v>41</v>
+      <c r="B46" t="s">
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46">
+        <f>IF(C46="일반",1,IF(C46="중간 보스",1.25,IF(C46="특수",2,5)))</f>
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f>IF(D46="지상",1,1.4)</f>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f>IF(E46="근접",1,1.3)</f>
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>23</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N46" s="6">
+        <f>SUM(I46:K46)*(G46+H46)*L46*M46</f>
+        <v>43.5</v>
+      </c>
+      <c r="O46" s="7">
+        <f>N46*F46</f>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" t="s">
+        <v>87</v>
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" t="s">
-        <v>52</v>
-      </c>
-      <c r="L49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
         <v>42</v>
       </c>
-      <c r="C52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" t="s">
-        <v>52</v>
-      </c>
-      <c r="L55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" t="s">
+        <v>112</v>
+      </c>
+      <c r="G58" t="s">
+        <v>113</v>
+      </c>
+      <c r="H58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>6</v>
       </c>
@@ -1735,26 +2110,527 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" t="s">
         <v>9</v>
       </c>
-      <c r="G61" t="s">
+      <c r="J61" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I61" t="s">
+      <c r="L61" t="s">
         <v>12</v>
       </c>
-      <c r="J61" t="s">
+      <c r="M61" t="s">
         <v>13</v>
       </c>
-      <c r="K61" t="s">
-        <v>52</v>
-      </c>
-      <c r="L61" t="s">
-        <v>51</v>
-      </c>
+      <c r="N61" t="s">
+        <v>48</v>
+      </c>
+      <c r="O61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <f>IF(C62="일반",1,IF(C62="중간 보스",1.25,IF(C62="특수",2,5)))</f>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <f>IF(D62="지상",1,1.4)</f>
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <f>IF(E62="근접",1,1.3)</f>
+        <v>1</v>
+      </c>
+      <c r="I62" s="2">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>23</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N62" s="6">
+        <f>SUM(I62:K62)*(G62+H62)*L62*M62</f>
+        <v>43.5</v>
+      </c>
+      <c r="O62" s="7">
+        <f>N62*F62</f>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B74" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" t="s">
+        <v>99</v>
+      </c>
+      <c r="H74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" t="s">
+        <v>57</v>
+      </c>
+      <c r="H77" t="s">
+        <v>58</v>
+      </c>
+      <c r="I77" t="s">
+        <v>9</v>
+      </c>
+      <c r="J77" t="s">
+        <v>10</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" t="s">
+        <v>12</v>
+      </c>
+      <c r="M77" t="s">
+        <v>13</v>
+      </c>
+      <c r="N77" t="s">
+        <v>48</v>
+      </c>
+      <c r="O77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78">
+        <f>IF(C78="일반",1,IF(C78="중간 보스",1.25,IF(C78="특수",2,5)))</f>
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <f>IF(D78="지상",1,1.4)</f>
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <f>IF(E78="근접",1,1.3)</f>
+        <v>1</v>
+      </c>
+      <c r="I78" s="2">
+        <v>5</v>
+      </c>
+      <c r="J78">
+        <v>23</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N78" s="6">
+        <f>SUM(I78:K78)*(G78+H78)*L78*M78</f>
+        <v>43.5</v>
+      </c>
+      <c r="O78" s="7">
+        <f>N78*F78</f>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" t="s">
+        <v>79</v>
+      </c>
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>80</v>
+      </c>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>81</v>
+      </c>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+      <c r="H86" s="2"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B89" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B90" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" t="s">
+        <v>105</v>
+      </c>
+      <c r="E90" t="s">
+        <v>106</v>
+      </c>
+      <c r="F90" t="s">
+        <v>107</v>
+      </c>
+      <c r="G90" t="s">
+        <v>108</v>
+      </c>
+      <c r="H90" t="s">
+        <v>109</v>
+      </c>
+      <c r="I90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
+        <v>59</v>
+      </c>
+      <c r="G93" t="s">
+        <v>57</v>
+      </c>
+      <c r="H93" t="s">
+        <v>58</v>
+      </c>
+      <c r="I93" t="s">
+        <v>9</v>
+      </c>
+      <c r="J93" t="s">
+        <v>10</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L93" t="s">
+        <v>12</v>
+      </c>
+      <c r="M93" t="s">
+        <v>13</v>
+      </c>
+      <c r="N93" t="s">
+        <v>48</v>
+      </c>
+      <c r="O93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94">
+        <f>IF(C94="일반",1,IF(C94="중간 보스",1.25,IF(C94="특수",2,5)))</f>
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <f>IF(D94="지상",1,1.4)</f>
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <f>IF(E94="근접",1,1.3)</f>
+        <v>1</v>
+      </c>
+      <c r="I94" s="2">
+        <v>5</v>
+      </c>
+      <c r="J94">
+        <v>23</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N94" s="6">
+        <f>SUM(I94:K94)*(G94+H94)*L94*M94</f>
+        <v>43.5</v>
+      </c>
+      <c r="O94" s="7">
+        <f>N94*F94</f>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" t="s">
+        <v>79</v>
+      </c>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C97" t="s">
+        <v>79</v>
+      </c>
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" t="s">
+        <v>79</v>
+      </c>
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>80</v>
+      </c>
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>80</v>
+      </c>
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>81</v>
+      </c>
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>82</v>
+      </c>
+      <c r="H102" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1765,12 +2641,120 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -538,14 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인체 보호 슈트를 개발한 연구원들 중 한 명이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뛰어난 의사로 인체 보호 슈트의 기능 개발에 참여한 연구원들 중 한 명이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조사단의 지휘를 담당하는 팀장급 인물이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,6 +551,14 @@
   </si>
   <si>
     <t>보급 물자를 담당하는 인물이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰어난 의사로 조사단원의 부상을 치료해주는 인물이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인체 보호 슈트를 개조하여 기능을 개선/변경해주는 인물이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2643,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
@@ -2691,7 +2691,7 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
@@ -2706,7 +2706,7 @@
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
@@ -2721,7 +2721,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
@@ -2736,7 +2736,7 @@
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
@@ -2751,7 +2751,7 @@
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="161">
   <si>
     <t>제목 : Project D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,295 +270,395 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>정화 드론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급형 순찰 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀이공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급형 안전 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급형 순찰 드론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급형 판매 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고층 건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 건물 지하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 건물 로비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 건물 저층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 건물 중층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 건물 상층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 건물 최상층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 청소 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티켓 판매 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 매표소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 공원 입구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 공연장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 푸드코트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 공사장 입구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 공사장 사무실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 연구소 입구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 연구소 로비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 복도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 숨겨진 실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 관람차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 제어 센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초고층 건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 건물 로비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 건물 저층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 건물 중층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 건물 상층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 건물 최상층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 건물 지하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 도시 제어실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 공사장 저층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 공사장 중층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 공사장 상층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 타워 크레인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사단의 인원은 총 6명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 오퍼레이터. 지휘 담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 능력치 업그레이드. 엔지니어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 생명력 회복. 의사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 주인공. 조사 담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 던전 이동. 운송 담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 상품 판매. 보급 담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사단의 지휘를 담당하는 팀장급 인물이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사단의 이동과 물자 운송을 담당하는 인물이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접 현장에 가서 도시 파괴 원인을 조사하는 인물이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보급 물자를 담당하는 인물이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰어난 의사로 조사단원의 부상을 치료해주는 인물이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인체 보호 슈트를 개조하여 기능을 개선/변경해주는 인물이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고층 건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사단은 우선 도시의 빈 공터에 자리를 잡고 주변의 건물부터 조사하기로 정했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 지하를 통해서 진입했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 지하에는 무언가에 오염되어 흐느적거리는 사람들과 마구잡이로 공격하는 로봇들이 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상함을 느낀 -는 건물을 확실하게 조사하기 위해 전기가 끊어진 엘리베이터를 뒤로 하고 계단을 통해 건물을 오른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 로비는 넓었지만 오래 방치된 탓인지 뜯겨나간 벽과 천장 잔해가 바닥에 수북히 쌓여있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비의 생명체와 로봇들을 뚫고 안내판을 발견한 -는 조사를 이어가기 위해 계단을 올랐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 저층에는 여러 회사의 사무실이 몰려있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대부분 난장판이 되어 있었고 크게 건질만한 것은 없었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 중층에는 건물의 청소를 담당하는 청소팀의 공간이 마련되어 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중층을 조사하던 중 절반만 파쇄된 어떤 종이를 발견하게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 상층에는 건물의 경비와 VIP들을 위한 경호팀의 공간이 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상층으로 올라가기 전에 쓰레기 등을 알아서 치우는 정화 드론이 날아다닌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20XX년, D구역의 도시 오염 원인을 조사하기 위한 조사단이 결성된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>오염된 경호대장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정화 드론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급형 순찰 로봇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>놀이공원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급형 안전 로봇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급형 순찰 드론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급형 판매 로봇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고층 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 건물 지하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 건물 로비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 건물 저층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 건물 중층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 건물 상층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 건물 최상층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중간 보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오염된 청소 로봇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티켓 판매 로봇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 매표소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 공원 입구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 공연장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 푸드코트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 공사장 입구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 공사장 사무실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 연구소 입구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 연구소 로비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 복도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 연구실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 실험실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 숨겨진 실험실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 관람차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 제어 센터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초고층 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 건물 로비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 건물 저층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 건물 중층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 건물 상층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 건물 최상층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 건물 지하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 도시 제어실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 공사장 저층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 공사장 중층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 공사장 상층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 타워 크레인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20XX년, D구역의 도시 파괴 원인을 조사하기 위한 조사단이 결성된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조사단의 인원은 총 6명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명 : 오퍼레이터. 지휘 담당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명 : 능력치 업그레이드. 엔지니어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명 : 생명력 회복. 의사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명 : 주인공. 조사 담당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명 : 던전 이동. 운송 담당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명 : 상품 판매. 보급 담당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조사단의 지휘를 담당하는 팀장급 인물이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조사단의 이동과 물자 운송을 담당하는 인물이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직접 현장에 가서 도시 파괴 원인을 조사하는 인물이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보급 물자를 담당하는 인물이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뛰어난 의사로 조사단원의 부상을 치료해주는 인물이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인체 보호 슈트를 개조하여 기능을 개선/변경해주는 인물이다.</t>
+    <t>경호대장은 반쯤 오염된 상태였고 홀로 정화 드론을 사용하여 간신히 연명하고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 최상층은 건물내 감시카메라와 경보 등을 설정할 수 있는 제어실과 경호대장실이 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이해버린 경호대장을 물리치고 건물 내에 사무실을 두었던 A 회사의 VIP가 남긴 메시지를 발견했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀이 공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지의 내용에 따라서 조사를 이어가기 위해 -는 놀이 공원으로 이동한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1332,31 +1432,31 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
         <v>73</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>74</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>75</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>76</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
@@ -1562,7 +1662,7 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -1758,7 +1858,7 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
         <v>45</v>
@@ -1807,7 +1907,7 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
         <v>46</v>
@@ -1862,30 +1962,30 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
         <v>88</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>89</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>90</v>
       </c>
-      <c r="F42" t="s">
-        <v>91</v>
-      </c>
       <c r="G42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" t="s">
         <v>101</v>
-      </c>
-      <c r="H42" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
@@ -1940,7 +2040,7 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
@@ -1989,73 +2089,73 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" t="s">
         <v>85</v>
-      </c>
-      <c r="E47" t="s">
-        <v>86</v>
       </c>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" t="s">
         <v>84</v>
       </c>
-      <c r="C48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" t="s">
-        <v>85</v>
-      </c>
       <c r="E48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H54" s="2"/>
     </row>
@@ -2069,25 +2169,25 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" t="s">
         <v>92</v>
       </c>
-      <c r="D58" t="s">
-        <v>93</v>
-      </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>112</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>113</v>
-      </c>
-      <c r="H58" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
@@ -2142,7 +2242,7 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
         <v>35</v>
@@ -2191,61 +2291,61 @@
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H68" s="2"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H70" s="2"/>
     </row>
@@ -2254,30 +2354,30 @@
         <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" t="s">
         <v>95</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>96</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>97</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>98</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>99</v>
-      </c>
-      <c r="H74" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.3">
@@ -2332,7 +2432,7 @@
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C78" t="s">
         <v>35</v>
@@ -2381,61 +2481,61 @@
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H86" s="2"/>
     </row>
@@ -2444,33 +2544,33 @@
         <v>41</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" t="s">
         <v>104</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>105</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>106</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>107</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>108</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>109</v>
-      </c>
-      <c r="I90" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.3">
@@ -2525,7 +2625,7 @@
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C94" t="s">
         <v>35</v>
@@ -2574,61 +2674,61 @@
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H96" s="2"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H97" s="2"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H99" s="2"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H100" s="2"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H101" s="2"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H102" s="2"/>
     </row>
@@ -2641,117 +2741,228 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B28"/>
+  <dimension ref="A2:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>119</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="166">
   <si>
     <t>제목 : Project D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,54 +482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명 : 오퍼레이터. 지휘 담당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명 : 능력치 업그레이드. 엔지니어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명 : 생명력 회복. 의사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명 : 주인공. 조사 담당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명 : 던전 이동. 운송 담당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명 : 상품 판매. 보급 담당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조사단의 지휘를 담당하는 팀장급 인물이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,6 +611,74 @@
   </si>
   <si>
     <t>메시지의 내용에 따라서 조사를 이어가기 위해 -는 놀이 공원으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 주인공. 조사 담당[남자]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 던전 이동. 운송 담당[남자]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 오퍼레이터. 지휘 담당[여자]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 상품 판매. 보급 담당[남자]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 생명력 회복. 의사[여자]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 능력치 업그레이드. 엔지니어[남자]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술을 좋아해서 현장에서도 자주 만취한 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호 슈트의 뛰어난 성능으로 할 일이 줄어들어 현장에서 지루함을 많이 느낀다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 올리버 리드 Oliver Reed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 릴리 톰슨 Lily Thompson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 에단 포스터 Ethan Foster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 사무엘 베넷 Samuel Bennett</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 클로에 미첼 Chloe Mitchell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 하퍼 에반스 Harper Evans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동 부족으로 항상 가쁜 숨을 몰아쉰다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침착하고 능력이 뛰어난 엘리트다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겉으론 불량해 보이지만 실제론 성실하다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1078,7 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -1907,7 +1927,7 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
         <v>46</v>
@@ -2741,10 +2761,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B56"/>
+  <dimension ref="A2:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2756,7 +2776,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
@@ -2766,203 +2786,228 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>128</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>131</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>132</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>133</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>135</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>149</v>
-      </c>
-      <c r="B48" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B51" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>158</v>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="175">
   <si>
     <t>제목 : Project D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -679,6 +679,42 @@
   </si>
   <si>
     <t>겉으론 불량해 보이지만 실제론 성실하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초고층 건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*** 이후 관람차에서 수상한 장치를 발견, 제어 센터에서 지시 사항이 적힌 종이를 발견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*** 공사장 사무실에서 지시 사항이 적힌 종이를 발견 후 타워 크레인에서 수상한 장치를 발견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*** 연구소 안쪽에서 수상한 장치를 개발하는 숨겨진 공간을 발견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*** 해당 장치를 가장 많이 운반하는 건물을 발견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*** 건물 옥상에서 도시 전체에 무언가를 살포하는 수상한 장치를 발견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*** 그리고 이 장치를 관리하는 누군가와 조우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O102"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="B36" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -2761,10 +2797,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B61"/>
+  <dimension ref="A2:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3010,6 +3046,51 @@
         <v>148</v>
       </c>
     </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Detail" sheetId="2" r:id="rId2"/>
-    <sheet name="Story" sheetId="3" r:id="rId3"/>
+    <sheet name="Detail" sheetId="4" r:id="rId2"/>
+    <sheet name="Stage" sheetId="2" r:id="rId3"/>
+    <sheet name="Story" sheetId="3" r:id="rId4"/>
+    <sheet name="Other" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="310">
   <si>
     <t>제목 : Project D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -715,6 +717,546 @@
   </si>
   <si>
     <t>*** 그리고 이 장치를 관리하는 누군가와 조우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>***** 추후 수정 가능성이 없으므로 확장성보다 빠른 생산을 추구하는 코드 스타일이 예상됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>***** 매니저 등의 관리 스크립트보다 단일 기능성 스크립트를 사용할 것으로 예상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>***** 2달간 현실적으로 가능한 수준을 생각해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 플레이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1. 스탯 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태미나회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 n의 피해를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0이 되면 사망한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0이 되면 달릴 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 공격 횟수다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동하는 속도다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1-1. 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레전더리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해를 n 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표기여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 준 피해의 n%를 생명력으로 흡수한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 스태미나 회복량이다. 가만히 있을 때 회복된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 생명력 회복량이다. 가만히 있을 때 회복된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 수준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 수준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 수준 옵션 2개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 수준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 수준 옵션 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장 옵션 - 공격력, 공격속도, 이동속도, 스태미나회복, 흡혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장 옵션 - 생명력, 방어력, 스태미나, 생명력회복, 스태미나회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 옵션 - 공격력, 공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 옵션 - 생명력, 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 옵션 - 생명력회복, 스태미나회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장 옵션 - 공격력, 생명력, 공격속도, 이동속도, 흡혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션 수준표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수준(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 + 0.06n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 + 0.12n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.002n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+0.1n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+0.08n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1 + 0.04n)%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150 수준 옵션 3개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 + 0.5n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생.회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스.회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태산의 망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1. 슈트 파츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파츠는 4가지 등급으로 나누어져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파츠 컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">등급 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물방울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1-3. 슈트 코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨결의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭풍의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물방울의 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래의 망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비의 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자갈의 망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위의 망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해일의 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파도의 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.007n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨결의 코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물방울의 코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래의 코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태산의 코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위의 코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비의 코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자갈의 코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭풍의 코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파도의 코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍의 코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해일의 코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물방울의 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비의 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파도의 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해일의 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1-2. 슈트 자기장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨결의 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래의 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자갈의 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭풍의 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위의 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태산의 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍의 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세팅 최종 스펙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉 보너스(+50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍계열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해일계열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태산계열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,7 +1312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,6 +1336,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B5"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1122,6 +1667,21 @@
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1132,10 +1692,1450 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R115"/>
+  <sheetViews>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="O98" sqref="O98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>E23+D23</f>
+        <v>100</v>
+      </c>
+      <c r="G23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24">
+        <v>150</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F27" si="0">E24+D24</f>
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25">
+        <v>200</v>
+      </c>
+      <c r="E25">
+        <v>200</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="G25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26">
+        <v>300</v>
+      </c>
+      <c r="E26">
+        <v>450</v>
+      </c>
+      <c r="F26">
+        <f>E26+D26</f>
+        <v>750</v>
+      </c>
+      <c r="G26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" t="s">
+        <v>231</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>55</v>
+      </c>
+      <c r="G31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34">
+        <v>0.35</v>
+      </c>
+      <c r="F34">
+        <v>0.7</v>
+      </c>
+      <c r="G34">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35">
+        <v>0.1</v>
+      </c>
+      <c r="F35">
+        <v>0.2</v>
+      </c>
+      <c r="G35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" t="s">
+        <v>228</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" t="s">
+        <v>227</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>14</v>
+      </c>
+      <c r="G37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" t="s">
+        <v>229</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G38" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>241</v>
+      </c>
+      <c r="D41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F41" t="s">
+        <v>242</v>
+      </c>
+      <c r="G41" t="s">
+        <v>301</v>
+      </c>
+      <c r="H41" t="s">
+        <v>301</v>
+      </c>
+      <c r="I41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" t="s">
+        <v>183</v>
+      </c>
+      <c r="I42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F43" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" t="s">
+        <v>184</v>
+      </c>
+      <c r="H43" t="s">
+        <v>236</v>
+      </c>
+      <c r="I43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" t="s">
+        <v>254</v>
+      </c>
+      <c r="F44" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" t="s">
+        <v>202</v>
+      </c>
+      <c r="H44" t="s">
+        <v>235</v>
+      </c>
+      <c r="I44" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D50" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D56" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>233</v>
+      </c>
+      <c r="H61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" t="s">
+        <v>180</v>
+      </c>
+      <c r="F62" t="s">
+        <v>182</v>
+      </c>
+      <c r="G62" t="s">
+        <v>183</v>
+      </c>
+      <c r="H62" t="s">
+        <v>182</v>
+      </c>
+      <c r="I62" t="s">
+        <v>183</v>
+      </c>
+      <c r="J62" t="s">
+        <v>186</v>
+      </c>
+      <c r="K62" t="s">
+        <v>236</v>
+      </c>
+      <c r="L62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63" t="s">
+        <v>256</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+      <c r="G63">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>198</v>
+      </c>
+      <c r="E64" t="s">
+        <v>260</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="65" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" t="s">
+        <v>261</v>
+      </c>
+      <c r="F65">
+        <v>12</v>
+      </c>
+      <c r="G65">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" t="s">
+        <v>257</v>
+      </c>
+      <c r="F66">
+        <v>14</v>
+      </c>
+      <c r="G66">
+        <v>1.26</v>
+      </c>
+      <c r="I66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" t="s">
+        <v>262</v>
+      </c>
+      <c r="F67">
+        <v>12</v>
+      </c>
+      <c r="G67">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" t="s">
+        <v>263</v>
+      </c>
+      <c r="F68">
+        <v>19</v>
+      </c>
+      <c r="G68">
+        <v>0.21</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" t="s">
+        <v>258</v>
+      </c>
+      <c r="F69">
+        <v>19</v>
+      </c>
+      <c r="G69">
+        <v>1.68</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" t="s">
+        <v>266</v>
+      </c>
+      <c r="F70">
+        <v>16</v>
+      </c>
+      <c r="G70">
+        <v>0.7</v>
+      </c>
+      <c r="I70">
+        <v>0.7</v>
+      </c>
+      <c r="L70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" t="s">
+        <v>264</v>
+      </c>
+      <c r="F71">
+        <v>25</v>
+      </c>
+      <c r="G71">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H71">
+        <v>16</v>
+      </c>
+      <c r="K71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" t="s">
+        <v>259</v>
+      </c>
+      <c r="F72">
+        <v>28</v>
+      </c>
+      <c r="G72">
+        <f>300*0.8*1.5*0.007</f>
+        <v>2.52</v>
+      </c>
+      <c r="I72">
+        <v>1.5</v>
+      </c>
+      <c r="J72">
+        <v>0.3</v>
+      </c>
+      <c r="K72">
+        <v>19</v>
+      </c>
+      <c r="R72" s="8"/>
+    </row>
+    <row r="73" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>201</v>
+      </c>
+      <c r="E73" t="s">
+        <v>265</v>
+      </c>
+      <c r="F73">
+        <v>24</v>
+      </c>
+      <c r="G73">
+        <v>1.05</v>
+      </c>
+      <c r="H73">
+        <v>24</v>
+      </c>
+      <c r="I73">
+        <v>1.05</v>
+      </c>
+      <c r="L73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>201</v>
+      </c>
+      <c r="E74" t="s">
+        <v>237</v>
+      </c>
+      <c r="F74">
+        <v>38</v>
+      </c>
+      <c r="G74">
+        <v>0.42</v>
+      </c>
+      <c r="H74">
+        <v>24</v>
+      </c>
+      <c r="I74">
+        <v>1.05</v>
+      </c>
+      <c r="K74">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D76" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>233</v>
+      </c>
+      <c r="H81" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" t="s">
+        <v>180</v>
+      </c>
+      <c r="F82" t="s">
+        <v>184</v>
+      </c>
+      <c r="G82" t="s">
+        <v>202</v>
+      </c>
+      <c r="H82" t="s">
+        <v>184</v>
+      </c>
+      <c r="I82" t="s">
+        <v>202</v>
+      </c>
+      <c r="J82" t="s">
+        <v>185</v>
+      </c>
+      <c r="K82" t="s">
+        <v>235</v>
+      </c>
+      <c r="L82" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" t="s">
+        <v>286</v>
+      </c>
+      <c r="F83">
+        <f>5+0.5*80</f>
+        <v>45</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84" t="s">
+        <v>281</v>
+      </c>
+      <c r="F84">
+        <f>30*1.5</f>
+        <v>45</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" t="s">
+        <v>287</v>
+      </c>
+      <c r="F85">
+        <v>15</v>
+      </c>
+      <c r="G85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86" t="s">
+        <v>288</v>
+      </c>
+      <c r="F86">
+        <v>65</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>199</v>
+      </c>
+      <c r="E87" t="s">
+        <v>282</v>
+      </c>
+      <c r="F87">
+        <f>42*1.5</f>
+        <v>63</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+      <c r="K87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>199</v>
+      </c>
+      <c r="E88" t="s">
+        <v>289</v>
+      </c>
+      <c r="F88">
+        <v>20</v>
+      </c>
+      <c r="G88">
+        <v>11</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" t="s">
+        <v>290</v>
+      </c>
+      <c r="F89">
+        <v>85</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>20</v>
+      </c>
+      <c r="L89">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>200</v>
+      </c>
+      <c r="E90" t="s">
+        <v>283</v>
+      </c>
+      <c r="F90">
+        <v>82</v>
+      </c>
+      <c r="G90">
+        <v>7</v>
+      </c>
+      <c r="K90">
+        <v>9</v>
+      </c>
+      <c r="L90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>200</v>
+      </c>
+      <c r="E91" t="s">
+        <v>291</v>
+      </c>
+      <c r="F91">
+        <v>25</v>
+      </c>
+      <c r="G91">
+        <v>15</v>
+      </c>
+      <c r="H91">
+        <v>55</v>
+      </c>
+      <c r="I91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>201</v>
+      </c>
+      <c r="E92" t="s">
+        <v>293</v>
+      </c>
+      <c r="F92">
+        <v>125</v>
+      </c>
+      <c r="G92">
+        <v>4</v>
+      </c>
+      <c r="J92">
+        <v>26</v>
+      </c>
+      <c r="K92">
+        <v>13</v>
+      </c>
+      <c r="L92">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>201</v>
+      </c>
+      <c r="E93" t="s">
+        <v>284</v>
+      </c>
+      <c r="F93">
+        <f>80*1.5</f>
+        <v>120</v>
+      </c>
+      <c r="G93">
+        <v>10</v>
+      </c>
+      <c r="H93">
+        <v>80</v>
+      </c>
+      <c r="K93">
+        <v>13</v>
+      </c>
+      <c r="L93">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>201</v>
+      </c>
+      <c r="E94" t="s">
+        <v>292</v>
+      </c>
+      <c r="F94">
+        <v>35</v>
+      </c>
+      <c r="G94">
+        <v>22</v>
+      </c>
+      <c r="H94">
+        <v>80</v>
+      </c>
+      <c r="I94">
+        <v>10</v>
+      </c>
+      <c r="K94">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D97" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>233</v>
+      </c>
+      <c r="H102" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>196</v>
+      </c>
+      <c r="E103" t="s">
+        <v>180</v>
+      </c>
+      <c r="F103" t="s">
+        <v>235</v>
+      </c>
+      <c r="G103" t="s">
+        <v>236</v>
+      </c>
+      <c r="H103" t="s">
+        <v>182</v>
+      </c>
+      <c r="I103" t="s">
+        <v>184</v>
+      </c>
+      <c r="J103" t="s">
+        <v>183</v>
+      </c>
+      <c r="K103" t="s">
+        <v>186</v>
+      </c>
+      <c r="L103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>198</v>
+      </c>
+      <c r="E104" t="s">
+        <v>269</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" t="s">
+        <v>270</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>198</v>
+      </c>
+      <c r="E106" t="s">
+        <v>271</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>199</v>
+      </c>
+      <c r="E107" t="s">
+        <v>274</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="G107">
+        <v>16</v>
+      </c>
+      <c r="K107">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="108" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>199</v>
+      </c>
+      <c r="E108" t="s">
+        <v>275</v>
+      </c>
+      <c r="F108">
+        <v>7</v>
+      </c>
+      <c r="G108">
+        <v>14</v>
+      </c>
+      <c r="L108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>199</v>
+      </c>
+      <c r="E109" t="s">
+        <v>276</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109">
+        <v>7</v>
+      </c>
+      <c r="I109">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>200</v>
+      </c>
+      <c r="E110" t="s">
+        <v>277</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110">
+        <v>20</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="111" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>200</v>
+      </c>
+      <c r="E111" t="s">
+        <v>278</v>
+      </c>
+      <c r="F111">
+        <v>9</v>
+      </c>
+      <c r="G111">
+        <v>17</v>
+      </c>
+      <c r="K111">
+        <v>0.2</v>
+      </c>
+      <c r="L111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>200</v>
+      </c>
+      <c r="E112" t="s">
+        <v>273</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112">
+        <v>8</v>
+      </c>
+      <c r="H112">
+        <v>16</v>
+      </c>
+      <c r="I112">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>201</v>
+      </c>
+      <c r="E113" t="s">
+        <v>279</v>
+      </c>
+      <c r="F113">
+        <v>8</v>
+      </c>
+      <c r="G113">
+        <v>28</v>
+      </c>
+      <c r="H113">
+        <v>36</v>
+      </c>
+      <c r="J113">
+        <v>1.5</v>
+      </c>
+      <c r="K113">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="114" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>201</v>
+      </c>
+      <c r="E114" t="s">
+        <v>280</v>
+      </c>
+      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="G114">
+        <v>24</v>
+      </c>
+      <c r="J114">
+        <v>1.05</v>
+      </c>
+      <c r="K114">
+        <v>0.3</v>
+      </c>
+      <c r="L114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>201</v>
+      </c>
+      <c r="E115" t="s">
+        <v>272</v>
+      </c>
+      <c r="F115">
+        <v>29</v>
+      </c>
+      <c r="G115">
+        <v>10</v>
+      </c>
+      <c r="H115">
+        <v>24</v>
+      </c>
+      <c r="I115">
+        <v>80</v>
+      </c>
+      <c r="K115">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O102"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2795,12 +4795,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3095,4 +5095,667 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K4" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>145</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1.34</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>37</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <f>D5*H5</f>
+        <v>25.46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>145</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>0.85</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>36</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" ref="M6:M16" si="0">D6*H6</f>
+        <v>15.299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>115</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>0.64</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>31</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="0"/>
+        <v>14.08</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>165</v>
+      </c>
+      <c r="F8">
+        <v>114</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2.11</v>
+      </c>
+      <c r="I8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>41</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="0"/>
+        <v>50.64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>163</v>
+      </c>
+      <c r="F9">
+        <v>105</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>39</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="0"/>
+        <v>22.549999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>0.71</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>32</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="0"/>
+        <v>26.27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>185</v>
+      </c>
+      <c r="F11">
+        <v>120</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>3.58</v>
+      </c>
+      <c r="I11">
+        <v>1.4</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>59</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="0"/>
+        <v>103.82000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>182</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>1.9</v>
+      </c>
+      <c r="I12">
+        <v>1.2</v>
+      </c>
+      <c r="J12">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>56</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="0"/>
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13">
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <v>235</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>0.78</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <v>47</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="0"/>
+        <v>52.260000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>225</v>
+      </c>
+      <c r="F14">
+        <v>126</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>6.02</v>
+      </c>
+      <c r="I14">
+        <v>1.6</v>
+      </c>
+      <c r="J14">
+        <v>21</v>
+      </c>
+      <c r="K14">
+        <v>91</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="0"/>
+        <v>445.47999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15">
+        <v>58</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>3.65</v>
+      </c>
+      <c r="I15">
+        <v>1.3</v>
+      </c>
+      <c r="J15">
+        <v>26</v>
+      </c>
+      <c r="K15">
+        <v>68</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="0"/>
+        <v>211.7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16">
+        <v>96</v>
+      </c>
+      <c r="E16">
+        <v>295</v>
+      </c>
+      <c r="F16">
+        <v>126</v>
+      </c>
+      <c r="G16">
+        <v>32</v>
+      </c>
+      <c r="H16">
+        <v>1.97</v>
+      </c>
+      <c r="I16">
+        <v>1.3</v>
+      </c>
+      <c r="J16">
+        <v>42</v>
+      </c>
+      <c r="K16">
+        <v>54</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="0"/>
+        <v>189.12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19" t="s">
+        <v>183</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" t="s">
+        <v>236</v>
+      </c>
+      <c r="L19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D20:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:L23" si="1">SUM(E20:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>298</v>
+      </c>
+      <c r="D24">
+        <f>D23+10</f>
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <f>E23+100</f>
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <f>F23+100</f>
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <f>G23</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>H23+0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <f>I23+1</f>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f>J23</f>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>K23+25</f>
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <f>L23</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="315">
   <si>
     <t>제목 : Project D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1257,6 +1257,26 @@
   </si>
   <si>
     <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수준 60 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수준 2000 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수준 1000 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수준 500 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수준 200 기준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1694,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R115"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O98" sqref="O98"/>
     </sheetView>
   </sheetViews>
@@ -1887,7 +1907,7 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F27" si="0">E24+D24</f>
+        <f t="shared" ref="F24:F25" si="0">E24+D24</f>
         <v>200</v>
       </c>
       <c r="G24" t="s">
@@ -3134,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3242,10 +3262,6 @@
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
-    </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>49</v>
@@ -3263,8 +3279,6 @@
       <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -3276,8 +3290,6 @@
       <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -3289,8 +3301,6 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -3490,6 +3500,9 @@
       <c r="C25" t="s">
         <v>71</v>
       </c>
+      <c r="D25" t="s">
+        <v>310</v>
+      </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
@@ -4020,6 +4033,9 @@
       <c r="C41" t="s">
         <v>65</v>
       </c>
+      <c r="D41" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
@@ -4222,6 +4238,9 @@
       <c r="C57" t="s">
         <v>42</v>
       </c>
+      <c r="D57" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
@@ -4412,6 +4431,9 @@
       <c r="C73" t="s">
         <v>93</v>
       </c>
+      <c r="D73" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
@@ -4601,6 +4623,9 @@
       </c>
       <c r="C89" t="s">
         <v>102</v>
+      </c>
+      <c r="D89" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.3">
@@ -4799,7 +4824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -5101,8 +5126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="322">
   <si>
     <t>제목 : Project D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1277,6 +1277,34 @@
   </si>
   <si>
     <t>수준 200 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에서 아이템 장착, 보관/스탯 정보를 볼 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1. 베이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 생명력, 스태미나, 회복 아이템 잔여 개수를 확인할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2. 인벤토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3. 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM, SFX 사운드를 조절할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1712,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R115"/>
+  <dimension ref="B2:R129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O98" sqref="O98"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3074,7 +3102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
         <v>201</v>
       </c>
@@ -3097,7 +3125,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="114" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
         <v>201</v>
       </c>
@@ -3120,7 +3148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
         <v>201</v>
       </c>
@@ -3141,6 +3169,41 @@
       </c>
       <c r="K115">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -968,10 +968,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>태산의 망치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-1. 슈트 파츠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1060,34 +1056,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>물방울의 창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모래의 망치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비의 창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자갈의 망치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바위의 망치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해일의 창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파도의 창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1305,6 +1273,38 @@
   </si>
   <si>
     <t>BGM, SFX 사운드를 조절할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물방울의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자갈의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파도의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해일의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태산의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1742,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1881,12 +1881,12 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -1985,7 +1985,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s">
         <v>180</v>
@@ -2091,7 +2091,7 @@
         <v>183</v>
       </c>
       <c r="D34" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E34">
         <v>0.35</v>
@@ -2185,30 +2185,30 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F40" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" t="s">
         <v>241</v>
       </c>
-      <c r="D41" t="s">
-        <v>242</v>
-      </c>
       <c r="F41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G41" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H41" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="I41" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
@@ -2216,10 +2216,10 @@
         <v>198</v>
       </c>
       <c r="D42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F42" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G42" t="s">
         <v>182</v>
@@ -2228,7 +2228,7 @@
         <v>183</v>
       </c>
       <c r="I42" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
@@ -2236,10 +2236,10 @@
         <v>198</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G43" t="s">
         <v>184</v>
@@ -2248,7 +2248,7 @@
         <v>236</v>
       </c>
       <c r="I43" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
@@ -2256,10 +2256,10 @@
         <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F44" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G44" t="s">
         <v>202</v>
@@ -2268,7 +2268,7 @@
         <v>235</v>
       </c>
       <c r="I44" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
@@ -2276,7 +2276,7 @@
         <v>199</v>
       </c>
       <c r="D45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
@@ -2284,7 +2284,7 @@
         <v>199</v>
       </c>
       <c r="D46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
@@ -2292,7 +2292,7 @@
         <v>199</v>
       </c>
       <c r="D47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
@@ -2300,7 +2300,7 @@
         <v>200</v>
       </c>
       <c r="D48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.3">
@@ -2308,7 +2308,7 @@
         <v>200</v>
       </c>
       <c r="D49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.3">
@@ -2316,7 +2316,7 @@
         <v>200</v>
       </c>
       <c r="D50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.3">
@@ -2324,7 +2324,7 @@
         <v>201</v>
       </c>
       <c r="D51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.3">
@@ -2332,7 +2332,7 @@
         <v>201</v>
       </c>
       <c r="D52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.3">
@@ -2340,7 +2340,7 @@
         <v>201</v>
       </c>
       <c r="D53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.3">
@@ -2400,7 +2400,7 @@
         <v>198</v>
       </c>
       <c r="E63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F63">
         <v>9</v>
@@ -2414,7 +2414,7 @@
         <v>198</v>
       </c>
       <c r="E64" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="F64">
         <v>8</v>
@@ -2428,7 +2428,7 @@
         <v>198</v>
       </c>
       <c r="E65" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -2442,7 +2442,7 @@
         <v>199</v>
       </c>
       <c r="E66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F66">
         <v>14</v>
@@ -2459,7 +2459,7 @@
         <v>199</v>
       </c>
       <c r="E67" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="F67">
         <v>12</v>
@@ -2476,7 +2476,7 @@
         <v>199</v>
       </c>
       <c r="E68" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="F68">
         <v>19</v>
@@ -2493,7 +2493,7 @@
         <v>200</v>
       </c>
       <c r="E69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F69">
         <v>19</v>
@@ -2513,7 +2513,7 @@
         <v>200</v>
       </c>
       <c r="E70" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="F70">
         <v>16</v>
@@ -2533,7 +2533,7 @@
         <v>200</v>
       </c>
       <c r="E71" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="F71">
         <v>25</v>
@@ -2553,7 +2553,7 @@
         <v>201</v>
       </c>
       <c r="E72" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F72">
         <v>28</v>
@@ -2578,7 +2578,7 @@
         <v>201</v>
       </c>
       <c r="E73" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="F73">
         <v>24</v>
@@ -2601,7 +2601,7 @@
         <v>201</v>
       </c>
       <c r="E74" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="76" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D76" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="4:18" x14ac:dyDescent="0.3">
@@ -2676,7 +2676,7 @@
         <v>198</v>
       </c>
       <c r="E83" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F83">
         <f>5+0.5*80</f>
@@ -2691,7 +2691,7 @@
         <v>198</v>
       </c>
       <c r="E84" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F84">
         <f>30*1.5</f>
@@ -2706,7 +2706,7 @@
         <v>198</v>
       </c>
       <c r="E85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F85">
         <v>15</v>
@@ -2720,7 +2720,7 @@
         <v>199</v>
       </c>
       <c r="E86" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F86">
         <v>65</v>
@@ -2737,7 +2737,7 @@
         <v>199</v>
       </c>
       <c r="E87" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F87">
         <f>42*1.5</f>
@@ -2755,7 +2755,7 @@
         <v>199</v>
       </c>
       <c r="E88" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F88">
         <v>20</v>
@@ -2772,7 +2772,7 @@
         <v>200</v>
       </c>
       <c r="E89" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F89">
         <v>85</v>
@@ -2792,7 +2792,7 @@
         <v>200</v>
       </c>
       <c r="E90" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F90">
         <v>82</v>
@@ -2812,7 +2812,7 @@
         <v>200</v>
       </c>
       <c r="E91" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F91">
         <v>25</v>
@@ -2832,7 +2832,7 @@
         <v>201</v>
       </c>
       <c r="E92" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F92">
         <v>125</v>
@@ -2855,7 +2855,7 @@
         <v>201</v>
       </c>
       <c r="E93" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F93">
         <f>80*1.5</f>
@@ -2879,7 +2879,7 @@
         <v>201</v>
       </c>
       <c r="E94" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F94">
         <v>35</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="97" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D97" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="4:12" x14ac:dyDescent="0.3">
@@ -2954,7 +2954,7 @@
         <v>198</v>
       </c>
       <c r="E104" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F104">
         <v>3</v>
@@ -2968,7 +2968,7 @@
         <v>198</v>
       </c>
       <c r="E105" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F105">
         <v>5</v>
@@ -2982,7 +2982,7 @@
         <v>198</v>
       </c>
       <c r="E106" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F106">
         <v>10</v>
@@ -2996,7 +2996,7 @@
         <v>199</v>
       </c>
       <c r="E107" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F107">
         <v>4</v>
@@ -3013,7 +3013,7 @@
         <v>199</v>
       </c>
       <c r="E108" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F108">
         <v>7</v>
@@ -3030,7 +3030,7 @@
         <v>199</v>
       </c>
       <c r="E109" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F109">
         <v>14</v>
@@ -3047,7 +3047,7 @@
         <v>200</v>
       </c>
       <c r="E110" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F110">
         <v>6</v>
@@ -3067,7 +3067,7 @@
         <v>200</v>
       </c>
       <c r="E111" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F111">
         <v>9</v>
@@ -3087,7 +3087,7 @@
         <v>200</v>
       </c>
       <c r="E112" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F112">
         <v>19</v>
@@ -3107,7 +3107,7 @@
         <v>201</v>
       </c>
       <c r="E113" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F113">
         <v>8</v>
@@ -3130,7 +3130,7 @@
         <v>201</v>
       </c>
       <c r="E114" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F114">
         <v>13</v>
@@ -3153,7 +3153,7 @@
         <v>201</v>
       </c>
       <c r="E115" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F115">
         <v>29</v>
@@ -3173,37 +3173,37 @@
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3564,7 +3564,7 @@
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -4097,7 +4097,7 @@
         <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
@@ -4302,7 +4302,7 @@
         <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
@@ -4495,7 +4495,7 @@
         <v>93</v>
       </c>
       <c r="D73" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.3">
@@ -4688,7 +4688,7 @@
         <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.3">
@@ -5204,7 +5204,7 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -5242,7 +5242,7 @@
         <v>205</v>
       </c>
       <c r="M4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -5250,7 +5250,7 @@
         <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5">
         <v>19</v>
@@ -5289,7 +5289,7 @@
         <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -5328,7 +5328,7 @@
         <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D7">
         <v>22</v>
@@ -5367,7 +5367,7 @@
         <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D8">
         <v>24</v>
@@ -5406,7 +5406,7 @@
         <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9">
         <v>22</v>
@@ -5445,7 +5445,7 @@
         <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D10">
         <v>37</v>
@@ -5484,7 +5484,7 @@
         <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D11">
         <v>29</v>
@@ -5523,7 +5523,7 @@
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D12">
         <v>26</v>
@@ -5562,7 +5562,7 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D13">
         <v>67</v>
@@ -5601,7 +5601,7 @@
         <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D14">
         <v>74</v>
@@ -5640,7 +5640,7 @@
         <v>201</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D15">
         <v>58</v>
@@ -5679,7 +5679,7 @@
         <v>201</v>
       </c>
       <c r="C16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D16">
         <v>96</v>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D19" t="s">
         <v>182</v>
@@ -5752,17 +5752,17 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D23">
         <f>SUM(D20:D22)</f>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D24">
         <f>D23+10</f>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="323">
   <si>
     <t>제목 : Project D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1305,6 +1305,10 @@
   </si>
   <si>
     <t>태산의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>***** 애들 에셋 구하기 힘들어서 그냥 전부 슈트 입고 있다는 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1742,7 +1746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
@@ -4885,10 +4889,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B77"/>
+  <dimension ref="A2:B79"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4910,272 +4914,277 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>149</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>118</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>165</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>164</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>128</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>131</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>134</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>137</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>140</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>147</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>174</v>
       </c>
     </row>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="326">
   <si>
     <t>제목 : Project D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1309,6 +1309,18 @@
   </si>
   <si>
     <t>***** 애들 에셋 구하기 힘들어서 그냥 전부 슈트 입고 있다는 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1747,7 +1759,7 @@
   <dimension ref="B2:R129"/>
   <sheetViews>
     <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+      <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2307,7 +2319,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>200</v>
       </c>
@@ -2315,7 +2327,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>200</v>
       </c>
@@ -2323,7 +2335,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>201</v>
       </c>
@@ -2331,7 +2343,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>201</v>
       </c>
@@ -2339,7 +2351,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>201</v>
       </c>
@@ -2347,22 +2359,22 @@
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D56" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>233</v>
       </c>
@@ -2370,7 +2382,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>196</v>
       </c>
@@ -2398,8 +2410,11 @@
       <c r="L62" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M62" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>198</v>
       </c>
@@ -2412,8 +2427,11 @@
       <c r="G63">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>198</v>
       </c>
@@ -2425,6 +2443,9 @@
       </c>
       <c r="G64">
         <v>0.35</v>
+      </c>
+      <c r="M64">
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="4:18" x14ac:dyDescent="0.3">
@@ -2440,6 +2461,9 @@
       <c r="G65">
         <v>0.14000000000000001</v>
       </c>
+      <c r="M65">
+        <v>400</v>
+      </c>
     </row>
     <row r="66" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
@@ -2457,6 +2481,9 @@
       <c r="I66">
         <v>0.5</v>
       </c>
+      <c r="M66">
+        <v>2000</v>
+      </c>
     </row>
     <row r="67" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
@@ -2474,6 +2501,9 @@
       <c r="L67">
         <v>3</v>
       </c>
+      <c r="M67">
+        <v>2000</v>
+      </c>
     </row>
     <row r="68" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
@@ -2491,6 +2521,9 @@
       <c r="H68">
         <v>8</v>
       </c>
+      <c r="M68">
+        <v>2000</v>
+      </c>
     </row>
     <row r="69" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
@@ -2511,6 +2544,9 @@
       <c r="J69">
         <v>0.2</v>
       </c>
+      <c r="M69">
+        <v>10000</v>
+      </c>
     </row>
     <row r="70" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
@@ -2531,6 +2567,9 @@
       <c r="L70">
         <v>5</v>
       </c>
+      <c r="M70">
+        <v>10000</v>
+      </c>
     </row>
     <row r="71" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
@@ -2551,6 +2590,9 @@
       <c r="K71">
         <v>14</v>
       </c>
+      <c r="M71">
+        <v>10000</v>
+      </c>
     </row>
     <row r="72" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
@@ -2575,6 +2617,9 @@
       <c r="K72">
         <v>19</v>
       </c>
+      <c r="M72" t="s">
+        <v>325</v>
+      </c>
       <c r="R72" s="8"/>
     </row>
     <row r="73" spans="4:18" x14ac:dyDescent="0.3">
@@ -2599,6 +2644,9 @@
       <c r="L73">
         <v>7</v>
       </c>
+      <c r="M73" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="74" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
@@ -2622,6 +2670,9 @@
       <c r="K74">
         <v>19</v>
       </c>
+      <c r="M74" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="76" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D76" s="4" t="s">
@@ -2638,7 +2689,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>233</v>
       </c>
@@ -2646,7 +2697,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>196</v>
       </c>
@@ -2674,8 +2725,11 @@
       <c r="L82" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="83" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M82" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>198</v>
       </c>
@@ -2689,8 +2743,11 @@
       <c r="G83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M83">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>198</v>
       </c>
@@ -2704,8 +2761,11 @@
       <c r="G84">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M84">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>198</v>
       </c>
@@ -2718,8 +2778,11 @@
       <c r="G85">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M85">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>199</v>
       </c>
@@ -2735,8 +2798,11 @@
       <c r="J86">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M86">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>199</v>
       </c>
@@ -2753,8 +2819,11 @@
       <c r="K87">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M87">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="88" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>199</v>
       </c>
@@ -2770,8 +2839,11 @@
       <c r="I88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M88">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="89" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>200</v>
       </c>
@@ -2790,8 +2862,11 @@
       <c r="L89">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M89">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>200</v>
       </c>
@@ -2810,8 +2885,11 @@
       <c r="L90">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M90">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>200</v>
       </c>
@@ -2830,8 +2908,11 @@
       <c r="I91">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M91">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>201</v>
       </c>
@@ -2853,8 +2934,11 @@
       <c r="L92">
         <v>19</v>
       </c>
-    </row>
-    <row r="93" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M92" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>201</v>
       </c>
@@ -2877,8 +2961,11 @@
       <c r="L93">
         <v>19</v>
       </c>
-    </row>
-    <row r="94" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M93" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>201</v>
       </c>
@@ -2900,23 +2987,26 @@
       <c r="K94">
         <v>13</v>
       </c>
-    </row>
-    <row r="97" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M94" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="97" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D97" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="99" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="100" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>233</v>
       </c>
@@ -2924,7 +3014,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>196</v>
       </c>
@@ -2952,8 +3042,11 @@
       <c r="L103" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="104" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M103" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="104" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>198</v>
       </c>
@@ -2966,8 +3059,11 @@
       <c r="G104">
         <v>12</v>
       </c>
-    </row>
-    <row r="105" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M104">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>198</v>
       </c>
@@ -2980,8 +3076,11 @@
       <c r="G105">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M105">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
         <v>198</v>
       </c>
@@ -2994,8 +3093,11 @@
       <c r="G106">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M106">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
         <v>199</v>
       </c>
@@ -3011,8 +3113,11 @@
       <c r="K107">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="108" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M107">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="108" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
         <v>199</v>
       </c>
@@ -3028,8 +3133,11 @@
       <c r="L108">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M108">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="109" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>199</v>
       </c>
@@ -3045,8 +3153,11 @@
       <c r="I109">
         <v>30</v>
       </c>
-    </row>
-    <row r="110" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M109">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="110" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
         <v>200</v>
       </c>
@@ -3065,8 +3176,11 @@
       <c r="K110">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="111" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M110">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="111" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
         <v>200</v>
       </c>
@@ -3085,8 +3199,11 @@
       <c r="L111">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M111">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="112" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
         <v>200</v>
       </c>
@@ -3105,8 +3222,11 @@
       <c r="I112">
         <v>55</v>
       </c>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M112">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
         <v>201</v>
       </c>
@@ -3128,8 +3248,11 @@
       <c r="K113">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M113" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
         <v>201</v>
       </c>
@@ -3151,8 +3274,11 @@
       <c r="L114">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M114" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
         <v>201</v>
       </c>
@@ -3174,33 +3300,36 @@
       <c r="K115">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M115" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
         <v>312</v>
       </c>
@@ -3219,10 +3348,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O102"/>
+  <dimension ref="B2:P102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3427,14 +3556,14 @@
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>6</v>
       </c>
@@ -3469,7 +3598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -3507,7 +3636,7 @@
         <v>131.625</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>1</v>
       </c>
@@ -3536,7 +3665,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -3546,21 +3675,21 @@
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="H23" s="2"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
@@ -3572,7 +3701,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>70</v>
       </c>
@@ -3595,17 +3724,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>6</v>
       </c>
@@ -3648,8 +3777,11 @@
       <c r="O29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>60</v>
       </c>
@@ -3697,8 +3829,12 @@
         <f>N30*F30</f>
         <v>43.5</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <f>ROUNDUP(SQRT(O30),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>53</v>
       </c>
@@ -3746,8 +3882,12 @@
         <f t="shared" ref="O31:O34" si="4">N31*F31</f>
         <v>33.6</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <f t="shared" ref="P31:P38" si="5">ROUNDUP(SQRT(O31),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>54</v>
       </c>
@@ -3795,8 +3935,12 @@
         <f t="shared" si="4"/>
         <v>35.879999999999995</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>82</v>
       </c>
@@ -3844,8 +3988,12 @@
         <f t="shared" si="4"/>
         <v>34.155000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>55</v>
       </c>
@@ -3893,8 +4041,12 @@
         <f t="shared" si="4"/>
         <v>41.16</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>61</v>
       </c>
@@ -3942,8 +4094,12 @@
         <f>N35*F35</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>62</v>
       </c>
@@ -3957,15 +4113,15 @@
         <v>37</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F38" si="5">IF(C36="일반",1,IF(C36="중간 보스",1.25,IF(C36="특수",2,5)))</f>
+        <f t="shared" ref="F36:F38" si="6">IF(C36="일반",1,IF(C36="중간 보스",1.25,IF(C36="특수",2,5)))</f>
         <v>1.25</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:G38" si="6">IF(D36="지상",1,1.4)</f>
+        <f t="shared" ref="G36:G38" si="7">IF(D36="지상",1,1.4)</f>
         <v>1.4</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H38" si="7">IF(E36="근접",1,1.3)</f>
+        <f t="shared" ref="H36:H38" si="8">IF(E36="근접",1,1.3)</f>
         <v>1.3</v>
       </c>
       <c r="I36" s="2">
@@ -3984,15 +4140,19 @@
         <v>0.3</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" ref="N36:N38" si="8">SUM(I36:K36)*(G36+H36)*L36*M36</f>
+        <f t="shared" ref="N36:N38" si="9">SUM(I36:K36)*(G36+H36)*L36*M36</f>
         <v>85.536000000000001</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" ref="O36:O38" si="9">N36*F36</f>
+        <f t="shared" ref="O36:O38" si="10">N36*F36</f>
         <v>106.92</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>63</v>
       </c>
@@ -4006,15 +4166,15 @@
         <v>37</v>
       </c>
       <c r="F37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4</v>
       </c>
       <c r="H37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="I37" s="2">
@@ -4033,15 +4193,19 @@
         <v>0.8</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>108</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>216</v>
       </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>142</v>
       </c>
@@ -4055,17 +4219,17 @@
         <v>18</v>
       </c>
       <c r="F38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G38">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H38">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
+      <c r="H38">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="I38" s="2">
         <v>29</v>
       </c>
@@ -4082,18 +4246,22 @@
         <v>0.25</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>749.65</v>
       </c>
       <c r="O38" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3748.25</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="H39" s="2"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>38</v>
       </c>
@@ -4104,7 +4272,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>70</v>
       </c>
@@ -4127,13 +4295,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>6</v>
       </c>
@@ -4176,8 +4344,11 @@
       <c r="O45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>64</v>
       </c>
@@ -4225,8 +4396,12 @@
         <f>N46*F46</f>
         <v>43.5</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <f>ROUNDUP(SQRT(O46),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>66</v>
       </c>
@@ -4240,8 +4415,12 @@
         <v>85</v>
       </c>
       <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <f t="shared" ref="P47:P54" si="11">ROUNDUP(SQRT(O47),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>83</v>
       </c>
@@ -4255,8 +4434,12 @@
         <v>86</v>
       </c>
       <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>69</v>
       </c>
@@ -4264,8 +4447,12 @@
         <v>78</v>
       </c>
       <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>67</v>
       </c>
@@ -4273,32 +4460,52 @@
         <v>78</v>
       </c>
       <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>79</v>
       </c>
       <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>79</v>
       </c>
       <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>80</v>
       </c>
       <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>81</v>
       </c>
       <c r="H54" s="2"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>39</v>
       </c>
@@ -4309,7 +4516,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>70</v>
       </c>
@@ -4332,13 +4539,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>6</v>
       </c>
@@ -4381,8 +4588,11 @@
       <c r="O61" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P61" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>64</v>
       </c>
@@ -4430,8 +4640,12 @@
         <f>N62*F62</f>
         <v>43.5</v>
       </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P62">
+        <f>ROUNDUP(SQRT(O62),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>66</v>
       </c>
@@ -4439,8 +4653,12 @@
         <v>78</v>
       </c>
       <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <f t="shared" ref="P63:P71" si="12">ROUNDUP(SQRT(O63),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>68</v>
       </c>
@@ -4448,8 +4666,12 @@
         <v>78</v>
       </c>
       <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>69</v>
       </c>
@@ -4457,8 +4679,12 @@
         <v>78</v>
       </c>
       <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>67</v>
       </c>
@@ -4466,32 +4692,58 @@
         <v>78</v>
       </c>
       <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P67">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>79</v>
       </c>
       <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>80</v>
       </c>
       <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P69">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>81</v>
       </c>
       <c r="H70" s="2"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P70">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P71">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
         <v>40</v>
       </c>
@@ -4502,7 +4754,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
         <v>70</v>
       </c>
@@ -4525,13 +4777,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>5</v>
       </c>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>6</v>
       </c>
@@ -4575,7 +4827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>64</v>
       </c>
@@ -4624,7 +4876,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>66</v>
       </c>
@@ -4633,7 +4885,7 @@
       </c>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>68</v>
       </c>
@@ -4891,8 +5143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5198,8 +5450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="337">
   <si>
     <t>제목 : Project D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1232,22 +1232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수준 2000 기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수준 1000 기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수준 500 기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수준 200 기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3. UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1321,6 +1305,66 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중2 보1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일11 특1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일8 중1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일6 중2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일15 특1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수준 1200 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수준 700 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수준 400 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수준 160 기준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2411,7 +2455,7 @@
         <v>205</v>
       </c>
       <c r="M62" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="3:13" x14ac:dyDescent="0.3">
@@ -2436,7 +2480,7 @@
         <v>198</v>
       </c>
       <c r="E64" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F64">
         <v>8</v>
@@ -2453,7 +2497,7 @@
         <v>198</v>
       </c>
       <c r="E65" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -2490,7 +2534,7 @@
         <v>199</v>
       </c>
       <c r="E67" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F67">
         <v>12</v>
@@ -2510,7 +2554,7 @@
         <v>199</v>
       </c>
       <c r="E68" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F68">
         <v>19</v>
@@ -2553,7 +2597,7 @@
         <v>200</v>
       </c>
       <c r="E70" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F70">
         <v>16</v>
@@ -2576,7 +2620,7 @@
         <v>200</v>
       </c>
       <c r="E71" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F71">
         <v>25</v>
@@ -2618,7 +2662,7 @@
         <v>19</v>
       </c>
       <c r="M72" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="R72" s="8"/>
     </row>
@@ -2627,7 +2671,7 @@
         <v>201</v>
       </c>
       <c r="E73" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F73">
         <v>24</v>
@@ -2645,7 +2689,7 @@
         <v>7</v>
       </c>
       <c r="M73" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="4:18" x14ac:dyDescent="0.3">
@@ -2653,7 +2697,7 @@
         <v>201</v>
       </c>
       <c r="E74" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -2671,7 +2715,7 @@
         <v>19</v>
       </c>
       <c r="M74" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="4:18" x14ac:dyDescent="0.3">
@@ -2726,7 +2770,7 @@
         <v>236</v>
       </c>
       <c r="M82" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="4:13" x14ac:dyDescent="0.3">
@@ -2935,7 +2979,7 @@
         <v>19</v>
       </c>
       <c r="M92" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="4:13" x14ac:dyDescent="0.3">
@@ -2962,7 +3006,7 @@
         <v>19</v>
       </c>
       <c r="M93" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="4:13" x14ac:dyDescent="0.3">
@@ -2988,7 +3032,7 @@
         <v>13</v>
       </c>
       <c r="M94" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="4:13" x14ac:dyDescent="0.3">
@@ -3043,7 +3087,7 @@
         <v>205</v>
       </c>
       <c r="M103" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="4:13" x14ac:dyDescent="0.3">
@@ -3249,7 +3293,7 @@
         <v>0.3</v>
       </c>
       <c r="M113" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.3">
@@ -3275,7 +3319,7 @@
         <v>7</v>
       </c>
       <c r="M114" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.3">
@@ -3301,42 +3345,42 @@
         <v>0.3</v>
       </c>
       <c r="M115" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3348,10 +3392,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P102"/>
+  <dimension ref="B2:P104"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3723,120 +3767,138 @@
       <c r="H26" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="J26" t="s">
+        <v>329</v>
+      </c>
+      <c r="K26" t="s">
+        <v>330</v>
+      </c>
+      <c r="L26" t="s">
+        <v>331</v>
+      </c>
+      <c r="M26" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" t="s">
+        <v>324</v>
+      </c>
+      <c r="D27" t="s">
+        <v>325</v>
+      </c>
+      <c r="E27" t="s">
+        <v>326</v>
+      </c>
+      <c r="F27" t="s">
+        <v>327</v>
+      </c>
+      <c r="G27" t="s">
+        <v>328</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J27">
+        <f>7+11+8+6+15</f>
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <f>1+2+2</f>
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <f>1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
+      <c r="B28" s="5"/>
       <c r="H28" s="2"/>
+      <c r="J28">
+        <f>J27*(14+18)/5</f>
+        <v>300.8</v>
+      </c>
+      <c r="K28">
+        <f>K27*22/2</f>
+        <v>55</v>
+      </c>
+      <c r="L28">
+        <f>L27*15</f>
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <f>M27*62</f>
+        <v>62</v>
+      </c>
+      <c r="N28">
+        <f>SUM(J28:M28)</f>
+        <v>447.8</v>
+      </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" t="s">
-        <v>13</v>
-      </c>
-      <c r="N29" t="s">
-        <v>48</v>
-      </c>
-      <c r="O29" t="s">
-        <v>47</v>
-      </c>
-      <c r="P29" t="s">
-        <v>323</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30">
-        <f>IF(C30="일반",1,IF(C30="중간 보스",1.25,IF(C30="특수",2,5)))</f>
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <f>IF(D30="지상",1,1.4)</f>
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <f>IF(E30="근접",1,1.3)</f>
-        <v>1</v>
-      </c>
-      <c r="I30" s="2">
-        <v>5</v>
-      </c>
-      <c r="J30">
-        <v>23</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="N30" s="6">
-        <f>SUM(I30:K30)*(G30+H30)*L30*M30</f>
-        <v>43.5</v>
-      </c>
-      <c r="O30" s="7">
-        <f>N30*F30</f>
-        <v>43.5</v>
-      </c>
-      <c r="P30">
-        <f>ROUNDUP(SQRT(O30),0)</f>
         <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" t="s">
+        <v>47</v>
+      </c>
+      <c r="P30" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
@@ -3848,48 +3910,48 @@
         <v>18</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F34" si="0">IF(C31="일반",1,IF(C31="중간 보스",1.25,IF(C31="특수",2,5)))</f>
+        <f>IF(C31="일반",1,IF(C31="중간 보스",1.25,IF(C31="특수",2,5)))</f>
         <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31:G34" si="1">IF(D31="지상",1,1.4)</f>
+        <f>IF(D31="지상",1,1.4)</f>
         <v>1</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H34" si="2">IF(E31="근접",1,1.3)</f>
+        <f>IF(E31="근접",1,1.3)</f>
         <v>1</v>
       </c>
       <c r="I31" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="M31" s="1">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" ref="N31:N34" si="3">SUM(I31:K31)*(G31+H31)*L31*M31</f>
-        <v>33.6</v>
+        <f>SUM(I31:K31)*(G31+H31)*L31*M31</f>
+        <v>43.5</v>
       </c>
       <c r="O31" s="7">
-        <f t="shared" ref="O31:O34" si="4">N31*F31</f>
-        <v>33.6</v>
+        <f>N31*F31</f>
+        <v>43.5</v>
       </c>
       <c r="P31">
-        <f t="shared" ref="P31:P38" si="5">ROUNDUP(SQRT(O31),0)</f>
-        <v>6</v>
+        <f>ROUNDUP(SQRT(O31),0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
@@ -3898,51 +3960,51 @@
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F32:F35" si="0">IF(C32="일반",1,IF(C32="중간 보스",1.25,IF(C32="특수",2,5)))</f>
         <v>1</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G32:G35" si="1">IF(D32="지상",1,1.4)</f>
         <v>1</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
-        <v>1.3</v>
+        <f t="shared" ref="H32:H35" si="2">IF(E32="근접",1,1.3)</f>
+        <v>1</v>
       </c>
       <c r="I32" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1">
         <v>1</v>
       </c>
       <c r="M32" s="1">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="3"/>
-        <v>35.879999999999995</v>
+        <f t="shared" ref="N32:N35" si="3">SUM(I32:K32)*(G32+H32)*L32*M32</f>
+        <v>33.6</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" si="4"/>
-        <v>35.879999999999995</v>
+        <f t="shared" ref="O32:O35" si="4">N32*F32</f>
+        <v>33.6</v>
       </c>
       <c r="P32">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="P32:P39" si="5">ROUNDUP(SQRT(O32),0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -3966,27 +4028,27 @@
         <v>1.3</v>
       </c>
       <c r="I33" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J33">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M33" s="1">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="N33" s="6">
         <f t="shared" si="3"/>
-        <v>34.155000000000001</v>
+        <v>35.879999999999995</v>
       </c>
       <c r="O33" s="7">
         <f t="shared" si="4"/>
-        <v>34.155000000000001</v>
+        <v>35.879999999999995</v>
       </c>
       <c r="P33">
         <f t="shared" si="5"/>
@@ -3995,7 +4057,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
@@ -4004,7 +4066,7 @@
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
@@ -4016,42 +4078,42 @@
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="I34" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J34">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="M34" s="1">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="N34" s="6">
         <f t="shared" si="3"/>
-        <v>41.16</v>
+        <v>34.155000000000001</v>
       </c>
       <c r="O34" s="7">
         <f t="shared" si="4"/>
-        <v>41.16</v>
+        <v>34.155000000000001</v>
       </c>
       <c r="P34">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
@@ -4060,92 +4122,92 @@
         <v>18</v>
       </c>
       <c r="F35">
-        <f>IF(C35="일반",1,IF(C35="중간 보스",1.25,IF(C35="특수",2,5)))</f>
-        <v>1.25</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G35">
-        <f>IF(D35="지상",1,1.4)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H35">
-        <f>IF(E35="근접",1,1.3)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I35" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J35">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="K35">
         <v>2</v>
       </c>
       <c r="L35" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M35" s="1">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="N35" s="6">
-        <f>SUM(I35:K35)*(G35+H35)*L35*M35</f>
-        <v>84</v>
+        <f t="shared" si="3"/>
+        <v>41.16</v>
       </c>
       <c r="O35" s="7">
-        <f>N35*F35</f>
-        <v>105</v>
+        <f t="shared" si="4"/>
+        <v>41.16</v>
       </c>
       <c r="P35">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F38" si="6">IF(C36="일반",1,IF(C36="중간 보스",1.25,IF(C36="특수",2,5)))</f>
+        <f>IF(C36="일반",1,IF(C36="중간 보스",1.25,IF(C36="특수",2,5)))</f>
         <v>1.25</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:G38" si="7">IF(D36="지상",1,1.4)</f>
-        <v>1.4</v>
+        <f>IF(D36="지상",1,1.4)</f>
+        <v>1</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H38" si="8">IF(E36="근접",1,1.3)</f>
-        <v>1.3</v>
+        <f>IF(E36="근접",1,1.3)</f>
+        <v>1</v>
       </c>
       <c r="I36" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J36">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="M36" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" ref="N36:N38" si="9">SUM(I36:K36)*(G36+H36)*L36*M36</f>
-        <v>85.536000000000001</v>
+        <f>SUM(I36:K36)*(G36+H36)*L36*M36</f>
+        <v>84</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" ref="O36:O38" si="10">N36*F36</f>
-        <v>106.92</v>
+        <f>N36*F36</f>
+        <v>105</v>
       </c>
       <c r="P36">
         <f t="shared" si="5"/>
@@ -4154,10 +4216,10 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
@@ -4166,298 +4228,330 @@
         <v>37</v>
       </c>
       <c r="F37">
+        <f t="shared" ref="F37:F39" si="6">IF(C37="일반",1,IF(C37="중간 보스",1.25,IF(C37="특수",2,5)))</f>
+        <v>1.25</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37:G39" si="7">IF(D37="지상",1,1.4)</f>
+        <v>1.4</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37:H39" si="8">IF(E37="근접",1,1.3)</f>
+        <v>1.3</v>
+      </c>
+      <c r="I37" s="2">
+        <v>9</v>
+      </c>
+      <c r="J37">
+        <v>76</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N37" s="6">
+        <f t="shared" ref="N37:N39" si="9">SUM(I37:K37)*(G37+H37)*L37*M37</f>
+        <v>85.536000000000001</v>
+      </c>
+      <c r="O37" s="7">
+        <f t="shared" ref="O37:O39" si="10">N37*F37</f>
+        <v>106.92</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <f t="shared" si="7"/>
         <v>1.4</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I38" s="2">
         <v>4</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <v>20</v>
       </c>
-      <c r="K37">
+      <c r="K38">
         <v>1</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L38" s="1">
         <v>2</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M38" s="1">
         <v>0.8</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N38" s="6">
         <f t="shared" si="9"/>
         <v>108</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O38" s="7">
         <f t="shared" si="10"/>
         <v>216</v>
       </c>
-      <c r="P37">
+      <c r="P38">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>142</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>18</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I39" s="2">
         <v>29</v>
       </c>
-      <c r="J38">
+      <c r="J39">
         <v>1000</v>
       </c>
-      <c r="K38">
+      <c r="K39">
         <v>5</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L39" s="1">
         <v>1.45</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M39" s="1">
         <v>0.25</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N39" s="6">
         <f t="shared" si="9"/>
         <v>749.65</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O39" s="7">
         <f t="shared" si="10"/>
         <v>3748.25</v>
       </c>
-      <c r="P38">
+      <c r="P39">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="H39" s="2"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" t="s">
-        <v>306</v>
-      </c>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H40" s="2"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>87</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>88</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>89</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
         <v>90</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>100</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-      <c r="I45" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45" t="s">
-        <v>13</v>
-      </c>
-      <c r="N45" t="s">
-        <v>48</v>
-      </c>
-      <c r="O45" t="s">
-        <v>47</v>
-      </c>
-      <c r="P45" t="s">
-        <v>323</v>
+      <c r="B44" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46">
-        <f>IF(C46="일반",1,IF(C46="중간 보스",1.25,IF(C46="특수",2,5)))</f>
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <f>IF(D46="지상",1,1.4)</f>
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <f>IF(E46="근접",1,1.3)</f>
-        <v>1</v>
-      </c>
-      <c r="I46" s="2">
         <v>5</v>
       </c>
-      <c r="J46">
-        <v>23</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="N46" s="6">
-        <f>SUM(I46:K46)*(G46+H46)*L46*M46</f>
-        <v>43.5</v>
-      </c>
-      <c r="O46" s="7">
-        <f>N46*F46</f>
-        <v>43.5</v>
-      </c>
-      <c r="P46">
-        <f>ROUNDUP(SQRT(O46),0)</f>
-        <v>7</v>
-      </c>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="2"/>
-      <c r="P47">
-        <f t="shared" ref="P47:P54" si="11">ROUNDUP(SQRT(O47),0)</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" t="s">
+        <v>48</v>
+      </c>
+      <c r="O47" t="s">
+        <v>47</v>
+      </c>
+      <c r="P47" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>86</v>
-      </c>
-      <c r="H48" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <f>IF(C48="일반",1,IF(C48="중간 보스",1.25,IF(C48="특수",2,5)))</f>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f>IF(D48="지상",1,1.4)</f>
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <f>IF(E48="근접",1,1.3)</f>
+        <v>1</v>
+      </c>
+      <c r="I48" s="2">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>23</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N48" s="6">
+        <f>SUM(I48:K48)*(G48+H48)*L48*M48</f>
+        <v>43.5</v>
+      </c>
+      <c r="O48" s="7">
+        <f>N48*F48</f>
+        <v>43.5</v>
+      </c>
       <c r="P48">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>ROUNDUP(SQRT(O48),0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
         <v>78</v>
       </c>
+      <c r="D49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" t="s">
+        <v>85</v>
+      </c>
       <c r="H49" s="2"/>
       <c r="P49">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="P49:P56" si="11">ROUNDUP(SQRT(O49),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
         <v>78</v>
+      </c>
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" t="s">
+        <v>86</v>
       </c>
       <c r="H50" s="2"/>
       <c r="P50">
@@ -4466,8 +4560,11 @@
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H51" s="2"/>
       <c r="P51">
@@ -4476,8 +4573,11 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H52" s="2"/>
       <c r="P52">
@@ -4487,7 +4587,7 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H53" s="2"/>
       <c r="P53">
@@ -4497,7 +4597,7 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H54" s="2"/>
       <c r="P54">
@@ -4505,188 +4605,182 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="4" t="s">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="P55">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="P56">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B59" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C59" t="s">
         <v>42</v>
       </c>
-      <c r="D57" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="4" t="s">
+      <c r="D59" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C60" t="s">
         <v>91</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D60" t="s">
         <v>92</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E60" t="s">
         <v>110</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F60" t="s">
         <v>111</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G60" t="s">
         <v>112</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H60" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>59</v>
-      </c>
-      <c r="G61" t="s">
-        <v>57</v>
-      </c>
-      <c r="H61" t="s">
-        <v>58</v>
-      </c>
-      <c r="I61" t="s">
-        <v>9</v>
-      </c>
-      <c r="J61" t="s">
-        <v>10</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" t="s">
-        <v>13</v>
-      </c>
-      <c r="N61" t="s">
-        <v>48</v>
-      </c>
-      <c r="O61" t="s">
-        <v>47</v>
-      </c>
-      <c r="P61" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62">
-        <f>IF(C62="일반",1,IF(C62="중간 보스",1.25,IF(C62="특수",2,5)))</f>
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <f>IF(D62="지상",1,1.4)</f>
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <f>IF(E62="근접",1,1.3)</f>
-        <v>1</v>
-      </c>
-      <c r="I62" s="2">
         <v>5</v>
       </c>
-      <c r="J62">
-        <v>23</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="M62" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="N62" s="6">
-        <f>SUM(I62:K62)*(G62+H62)*L62*M62</f>
-        <v>43.5</v>
-      </c>
-      <c r="O62" s="7">
-        <f>N62*F62</f>
-        <v>43.5</v>
-      </c>
-      <c r="P62">
-        <f>ROUNDUP(SQRT(O62),0)</f>
-        <v>7</v>
-      </c>
+      <c r="H62" s="2"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
-      </c>
-      <c r="H63" s="2"/>
-      <c r="P63">
-        <f t="shared" ref="P63:P71" si="12">ROUNDUP(SQRT(O63),0)</f>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" t="s">
+        <v>58</v>
+      </c>
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" t="s">
+        <v>10</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" t="s">
+        <v>13</v>
+      </c>
+      <c r="N63" t="s">
+        <v>48</v>
+      </c>
+      <c r="O63" t="s">
+        <v>47</v>
+      </c>
+      <c r="P63" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
-      </c>
-      <c r="H64" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <f>IF(C64="일반",1,IF(C64="중간 보스",1.25,IF(C64="특수",2,5)))</f>
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <f>IF(D64="지상",1,1.4)</f>
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <f>IF(E64="근접",1,1.3)</f>
+        <v>1</v>
+      </c>
+      <c r="I64" s="2">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>23</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N64" s="6">
+        <f>SUM(I64:K64)*(G64+H64)*L64*M64</f>
+        <v>43.5</v>
+      </c>
+      <c r="O64" s="7">
+        <f>N64*F64</f>
+        <v>43.5</v>
+      </c>
       <c r="P64">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>ROUNDUP(SQRT(O64),0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
       </c>
       <c r="H65" s="2"/>
       <c r="P65">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="P65:P73" si="12">ROUNDUP(SQRT(O65),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
@@ -4698,8 +4792,11 @@
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H67" s="2"/>
       <c r="P67">
@@ -4708,8 +4805,11 @@
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H68" s="2"/>
       <c r="P68">
@@ -4719,7 +4819,7 @@
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H69" s="2"/>
       <c r="P69">
@@ -4729,7 +4829,7 @@
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H70" s="2"/>
       <c r="P70">
@@ -4738,165 +4838,167 @@
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+      <c r="H71" s="2"/>
       <c r="P71">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="P72">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B73" s="4" t="s">
+      <c r="P73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B75" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C75" t="s">
         <v>93</v>
       </c>
-      <c r="D73" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B74" s="4" t="s">
+      <c r="D75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B76" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C76" t="s">
         <v>94</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D76" t="s">
         <v>95</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E76" t="s">
         <v>96</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F76" t="s">
         <v>97</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G76" t="s">
         <v>98</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H76" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" t="s">
-        <v>59</v>
-      </c>
-      <c r="G77" t="s">
-        <v>57</v>
-      </c>
-      <c r="H77" t="s">
-        <v>58</v>
-      </c>
-      <c r="I77" t="s">
-        <v>9</v>
-      </c>
-      <c r="J77" t="s">
-        <v>10</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L77" t="s">
-        <v>12</v>
-      </c>
-      <c r="M77" t="s">
-        <v>13</v>
-      </c>
-      <c r="N77" t="s">
-        <v>48</v>
-      </c>
-      <c r="O77" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" t="s">
-        <v>35</v>
-      </c>
-      <c r="D78" t="s">
-        <v>16</v>
-      </c>
-      <c r="E78" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78">
-        <f>IF(C78="일반",1,IF(C78="중간 보스",1.25,IF(C78="특수",2,5)))</f>
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <f>IF(D78="지상",1,1.4)</f>
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <f>IF(E78="근접",1,1.3)</f>
-        <v>1</v>
-      </c>
-      <c r="I78" s="2">
         <v>5</v>
       </c>
-      <c r="J78">
-        <v>23</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="M78" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="N78" s="6">
-        <f>SUM(I78:K78)*(G78+H78)*L78*M78</f>
-        <v>43.5</v>
-      </c>
-      <c r="O78" s="7">
-        <f>N78*F78</f>
-        <v>43.5</v>
-      </c>
+      <c r="H78" s="2"/>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
-      </c>
-      <c r="H79" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>59</v>
+      </c>
+      <c r="G79" t="s">
+        <v>57</v>
+      </c>
+      <c r="H79" t="s">
+        <v>58</v>
+      </c>
+      <c r="I79" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L79" t="s">
+        <v>12</v>
+      </c>
+      <c r="M79" t="s">
+        <v>13</v>
+      </c>
+      <c r="N79" t="s">
+        <v>48</v>
+      </c>
+      <c r="O79" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
-      </c>
-      <c r="H80" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80">
+        <f>IF(C80="일반",1,IF(C80="중간 보스",1.25,IF(C80="특수",2,5)))</f>
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <f>IF(D80="지상",1,1.4)</f>
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <f>IF(E80="근접",1,1.3)</f>
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <v>5</v>
+      </c>
+      <c r="J80">
+        <v>23</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N80" s="6">
+        <f>SUM(I80:K80)*(G80+H80)*L80*M80</f>
+        <v>43.5</v>
+      </c>
+      <c r="O80" s="7">
+        <f>N80*F80</f>
+        <v>43.5</v>
+      </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
         <v>78</v>
@@ -4905,7 +5007,7 @@
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C82" t="s">
         <v>78</v>
@@ -4913,186 +5015,186 @@
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>69</v>
+      </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>67</v>
+      </c>
       <c r="C84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
+        <v>79</v>
+      </c>
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>80</v>
+      </c>
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
         <v>81</v>
       </c>
-      <c r="H86" s="2"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B89" s="4" t="s">
+      <c r="H88" s="2"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B91" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C91" t="s">
         <v>102</v>
       </c>
-      <c r="D89" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B90" s="4" t="s">
+      <c r="D91" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B92" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" t="s">
         <v>103</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D92" t="s">
         <v>104</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E92" t="s">
         <v>105</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F92" t="s">
         <v>106</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G92" t="s">
         <v>107</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H92" t="s">
         <v>108</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I92" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
-      <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>59</v>
-      </c>
-      <c r="G93" t="s">
-        <v>57</v>
-      </c>
-      <c r="H93" t="s">
-        <v>58</v>
-      </c>
-      <c r="I93" t="s">
-        <v>9</v>
-      </c>
-      <c r="J93" t="s">
-        <v>10</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L93" t="s">
-        <v>12</v>
-      </c>
-      <c r="M93" t="s">
-        <v>13</v>
-      </c>
-      <c r="N93" t="s">
-        <v>48</v>
-      </c>
-      <c r="O93" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>64</v>
-      </c>
-      <c r="C94" t="s">
-        <v>35</v>
-      </c>
-      <c r="D94" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94">
-        <f>IF(C94="일반",1,IF(C94="중간 보스",1.25,IF(C94="특수",2,5)))</f>
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <f>IF(D94="지상",1,1.4)</f>
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <f>IF(E94="근접",1,1.3)</f>
-        <v>1</v>
-      </c>
-      <c r="I94" s="2">
         <v>5</v>
       </c>
-      <c r="J94">
-        <v>23</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="M94" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="N94" s="6">
-        <f>SUM(I94:K94)*(G94+H94)*L94*M94</f>
-        <v>43.5</v>
-      </c>
-      <c r="O94" s="7">
-        <f>N94*F94</f>
-        <v>43.5</v>
-      </c>
+      <c r="H94" s="2"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>78</v>
-      </c>
-      <c r="H95" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
+        <v>59</v>
+      </c>
+      <c r="G95" t="s">
+        <v>57</v>
+      </c>
+      <c r="H95" t="s">
+        <v>58</v>
+      </c>
+      <c r="I95" t="s">
+        <v>9</v>
+      </c>
+      <c r="J95" t="s">
+        <v>10</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L95" t="s">
+        <v>12</v>
+      </c>
+      <c r="M95" t="s">
+        <v>13</v>
+      </c>
+      <c r="N95" t="s">
+        <v>48</v>
+      </c>
+      <c r="O95" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>78</v>
-      </c>
-      <c r="H96" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96">
+        <f>IF(C96="일반",1,IF(C96="중간 보스",1.25,IF(C96="특수",2,5)))</f>
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <f>IF(D96="지상",1,1.4)</f>
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <f>IF(E96="근접",1,1.3)</f>
+        <v>1</v>
+      </c>
+      <c r="I96" s="2">
+        <v>5</v>
+      </c>
+      <c r="J96">
+        <v>23</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N96" s="6">
+        <f>SUM(I96:K96)*(G96+H96)*L96*M96</f>
+        <v>43.5</v>
+      </c>
+      <c r="O96" s="7">
+        <f>N96*F96</f>
+        <v>43.5</v>
+      </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C97" t="s">
         <v>78</v>
@@ -5101,7 +5203,7 @@
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C98" t="s">
         <v>78</v>
@@ -5109,28 +5211,46 @@
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>69</v>
+      </c>
       <c r="C99" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H99" s="2"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>67</v>
+      </c>
       <c r="C100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H100" s="2"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H101" s="2"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
+        <v>79</v>
+      </c>
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>80</v>
+      </c>
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
         <v>81</v>
       </c>
-      <c r="H102" s="2"/>
+      <c r="H104" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5166,7 +5286,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -5450,7 +5570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="333">
   <si>
     <t>제목 : Project D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1333,22 +1333,6 @@
   </si>
   <si>
     <t>일15 특1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3394,8 +3378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3767,18 +3751,6 @@
       <c r="H26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J26" t="s">
-        <v>329</v>
-      </c>
-      <c r="K26" t="s">
-        <v>330</v>
-      </c>
-      <c r="L26" t="s">
-        <v>331</v>
-      </c>
-      <c r="M26" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
@@ -3802,46 +3774,10 @@
       <c r="H27" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="J27">
-        <f>7+11+8+6+15</f>
-        <v>47</v>
-      </c>
-      <c r="K27">
-        <f>1+2+2</f>
-        <v>5</v>
-      </c>
-      <c r="L27">
-        <f>1+1</f>
-        <v>2</v>
-      </c>
-      <c r="M27">
-        <f>1</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="H28" s="2"/>
-      <c r="J28">
-        <f>J27*(14+18)/5</f>
-        <v>300.8</v>
-      </c>
-      <c r="K28">
-        <f>K27*22/2</f>
-        <v>55</v>
-      </c>
-      <c r="L28">
-        <f>L27*15</f>
-        <v>30</v>
-      </c>
-      <c r="M28">
-        <f>M27*62</f>
-        <v>62</v>
-      </c>
-      <c r="N28">
-        <f>SUM(J28:M28)</f>
-        <v>447.8</v>
-      </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
@@ -3881,10 +3817,10 @@
         <v>11</v>
       </c>
       <c r="L30" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" t="s">
         <v>12</v>
-      </c>
-      <c r="M30" t="s">
-        <v>13</v>
       </c>
       <c r="N30" t="s">
         <v>48</v>
@@ -3931,22 +3867,22 @@
         <v>1</v>
       </c>
       <c r="L31" s="1">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="M31" s="1">
         <v>0.6</v>
       </c>
       <c r="N31" s="6">
-        <f>SUM(I31:K31)*(G31+H31)*L31*M31</f>
-        <v>43.5</v>
+        <f>SUM(I31:K31)*(G31+H31)*M31*L31</f>
+        <v>20.88</v>
       </c>
       <c r="O31" s="7">
         <f>N31*F31</f>
-        <v>43.5</v>
-      </c>
-      <c r="P31">
-        <f>ROUNDUP(SQRT(O31),0)</f>
-        <v>7</v>
+        <v>20.88</v>
+      </c>
+      <c r="P31" s="7">
+        <f>ROUNDUP(O31/4,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
@@ -3984,22 +3920,22 @@
         <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M32" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" ref="N32:N35" si="3">SUM(I32:K32)*(G32+H32)*L32*M32</f>
-        <v>33.6</v>
+        <f>SUM(I32:K32)*(G32+H32)*M32*L32</f>
+        <v>16.8</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" ref="O32:O35" si="4">N32*F32</f>
-        <v>33.6</v>
-      </c>
-      <c r="P32">
-        <f t="shared" ref="P32:P39" si="5">ROUNDUP(SQRT(O32),0)</f>
-        <v>6</v>
+        <f t="shared" ref="O32:O35" si="3">N32*F32</f>
+        <v>16.8</v>
+      </c>
+      <c r="P32" s="7">
+        <f t="shared" ref="P32:P39" si="4">ROUNDUP(O32/4,0)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
@@ -4037,22 +3973,22 @@
         <v>1</v>
       </c>
       <c r="L33" s="1">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="M33" s="1">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="N33" s="6">
+        <f>SUM(I33:K33)*(G33+H33)*M33*L33</f>
+        <v>17.939999999999998</v>
+      </c>
+      <c r="O33" s="7">
         <f t="shared" si="3"/>
-        <v>35.879999999999995</v>
-      </c>
-      <c r="O33" s="7">
+        <v>17.939999999999998</v>
+      </c>
+      <c r="P33" s="7">
         <f t="shared" si="4"/>
-        <v>35.879999999999995</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
@@ -4090,22 +4026,22 @@
         <v>0</v>
       </c>
       <c r="L34" s="1">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="M34" s="1">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="N34" s="6">
+        <f>SUM(I34:K34)*(G34+H34)*M34*L34</f>
+        <v>17.077500000000001</v>
+      </c>
+      <c r="O34" s="7">
         <f t="shared" si="3"/>
-        <v>34.155000000000001</v>
-      </c>
-      <c r="O34" s="7">
+        <v>17.077500000000001</v>
+      </c>
+      <c r="P34" s="7">
         <f t="shared" si="4"/>
-        <v>34.155000000000001</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
@@ -4146,19 +4082,19 @@
         <v>0.7</v>
       </c>
       <c r="M35" s="1">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="N35" s="6">
+        <f>SUM(I35:K35)*(G35+H35)*M35*L35</f>
+        <v>20.58</v>
+      </c>
+      <c r="O35" s="7">
         <f t="shared" si="3"/>
-        <v>41.16</v>
-      </c>
-      <c r="O35" s="7">
+        <v>20.58</v>
+      </c>
+      <c r="P35" s="7">
         <f t="shared" si="4"/>
-        <v>41.16</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
@@ -4196,22 +4132,22 @@
         <v>2</v>
       </c>
       <c r="L36" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M36" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N36" s="6">
-        <f>SUM(I36:K36)*(G36+H36)*L36*M36</f>
-        <v>84</v>
+        <f>SUM(I36:K36)*(G36+H36)*M36*L36</f>
+        <v>42</v>
       </c>
       <c r="O36" s="7">
         <f>N36*F36</f>
-        <v>105</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <v>52.5</v>
+      </c>
+      <c r="P36" s="7">
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
@@ -4228,15 +4164,15 @@
         <v>37</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:F39" si="6">IF(C37="일반",1,IF(C37="중간 보스",1.25,IF(C37="특수",2,5)))</f>
+        <f t="shared" ref="F37:F39" si="5">IF(C37="일반",1,IF(C37="중간 보스",1.25,IF(C37="특수",2,5)))</f>
         <v>1.25</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G39" si="7">IF(D37="지상",1,1.4)</f>
+        <f t="shared" ref="G37:G39" si="6">IF(D37="지상",1,1.4)</f>
         <v>1.4</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:H39" si="8">IF(E37="근접",1,1.3)</f>
+        <f t="shared" ref="H37:H39" si="7">IF(E37="근접",1,1.3)</f>
         <v>1.3</v>
       </c>
       <c r="I37" s="2">
@@ -4249,22 +4185,22 @@
         <v>3</v>
       </c>
       <c r="L37" s="1">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="M37" s="1">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" ref="N37:N39" si="9">SUM(I37:K37)*(G37+H37)*L37*M37</f>
-        <v>85.536000000000001</v>
+        <f>SUM(I37:K37)*(G37+H37)*M37*L37</f>
+        <v>42.768000000000001</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" ref="O37:O39" si="10">N37*F37</f>
-        <v>106.92</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" ref="O37:O39" si="8">N37*F37</f>
+        <v>53.46</v>
+      </c>
+      <c r="P37" s="7">
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
@@ -4281,15 +4217,15 @@
         <v>37</v>
       </c>
       <c r="F38">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G38">
+        <v>1.4</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="7"/>
-        <v>1.4</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="I38" s="2">
@@ -4302,22 +4238,22 @@
         <v>1</v>
       </c>
       <c r="L38" s="1">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M38" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="9"/>
+        <f>SUM(I38:K38)*(G38+H38)*M38*L38</f>
+        <v>54</v>
+      </c>
+      <c r="O38" s="7">
+        <f t="shared" si="8"/>
         <v>108</v>
       </c>
-      <c r="O38" s="7">
-        <f t="shared" si="10"/>
-        <v>216</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="5"/>
-        <v>15</v>
+      <c r="P38" s="7">
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
@@ -4334,17 +4270,17 @@
         <v>18</v>
       </c>
       <c r="F39">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
       <c r="I39" s="2">
         <v>29</v>
       </c>
@@ -4355,22 +4291,22 @@
         <v>5</v>
       </c>
       <c r="L39" s="1">
-        <v>1.45</v>
+        <v>0.25</v>
       </c>
       <c r="M39" s="1">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="9"/>
-        <v>749.65</v>
+        <f>SUM(I39:K39)*(G39+H39)*M39*L39</f>
+        <v>361.9</v>
       </c>
       <c r="O39" s="7">
-        <f t="shared" si="10"/>
-        <v>3748.25</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="5"/>
-        <v>62</v>
+        <f t="shared" si="8"/>
+        <v>1809.5</v>
+      </c>
+      <c r="P39" s="7">
+        <f t="shared" si="4"/>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
@@ -4384,7 +4320,7 @@
         <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
@@ -4503,22 +4439,22 @@
         <v>1</v>
       </c>
       <c r="L48" s="1">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="M48" s="1">
         <v>0.6</v>
       </c>
       <c r="N48" s="6">
         <f>SUM(I48:K48)*(G48+H48)*L48*M48</f>
-        <v>43.5</v>
+        <v>20.88</v>
       </c>
       <c r="O48" s="7">
         <f>N48*F48</f>
-        <v>43.5</v>
+        <v>20.88</v>
       </c>
       <c r="P48">
         <f>ROUNDUP(SQRT(O48),0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
@@ -4536,7 +4472,7 @@
       </c>
       <c r="H49" s="2"/>
       <c r="P49">
-        <f t="shared" ref="P49:P56" si="11">ROUNDUP(SQRT(O49),0)</f>
+        <f t="shared" ref="P49:P56" si="9">ROUNDUP(SQRT(O49),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4555,7 +4491,7 @@
       </c>
       <c r="H50" s="2"/>
       <c r="P50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4568,7 +4504,7 @@
       </c>
       <c r="H51" s="2"/>
       <c r="P51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4581,7 +4517,7 @@
       </c>
       <c r="H52" s="2"/>
       <c r="P52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4591,7 +4527,7 @@
       </c>
       <c r="H53" s="2"/>
       <c r="P53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4601,7 +4537,7 @@
       </c>
       <c r="H54" s="2"/>
       <c r="P54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4611,7 +4547,7 @@
       </c>
       <c r="H55" s="2"/>
       <c r="P55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4621,7 +4557,7 @@
       </c>
       <c r="H56" s="2"/>
       <c r="P56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4633,7 +4569,7 @@
         <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.3">
@@ -4774,7 +4710,7 @@
       </c>
       <c r="H65" s="2"/>
       <c r="P65">
-        <f t="shared" ref="P65:P73" si="12">ROUNDUP(SQRT(O65),0)</f>
+        <f t="shared" ref="P65:P73" si="10">ROUNDUP(SQRT(O65),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4787,7 +4723,7 @@
       </c>
       <c r="H66" s="2"/>
       <c r="P66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4800,7 +4736,7 @@
       </c>
       <c r="H67" s="2"/>
       <c r="P67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4813,7 +4749,7 @@
       </c>
       <c r="H68" s="2"/>
       <c r="P68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4823,7 +4759,7 @@
       </c>
       <c r="H69" s="2"/>
       <c r="P69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4833,7 +4769,7 @@
       </c>
       <c r="H70" s="2"/>
       <c r="P70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4843,7 +4779,7 @@
       </c>
       <c r="H71" s="2"/>
       <c r="P71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4853,13 +4789,13 @@
       </c>
       <c r="H72" s="2"/>
       <c r="P72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4871,7 +4807,7 @@
         <v>93</v>
       </c>
       <c r="D75" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
@@ -5064,7 +5000,7 @@
         <v>102</v>
       </c>
       <c r="D91" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.3">
